--- a/Sistema Contable.xlsx
+++ b/Sistema Contable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Configuraciones" sheetId="1" r:id="rId1"/>
@@ -13,9 +13,11 @@
     <sheet name="Balance general" sheetId="5" r:id="rId4"/>
     <sheet name="Estado de resultados" sheetId="6" r:id="rId5"/>
     <sheet name="Referencias" sheetId="3" r:id="rId6"/>
+    <sheet name="Tablas auxiliares" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="TblCatalogoCuentas_Etiqueta">TblCatalogoCuentas[Etiqueta]</definedName>
+    <definedName name="TblNaturalezaCuentas_Aux">TblNaturalezaCuentas[Naturaleza de cuentas]</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="170">
   <si>
     <t>Nivel maximo de cuentas</t>
   </si>
@@ -524,6 +526,24 @@
   </si>
   <si>
     <t>DÓLARES DE LOS ESTADOS UNIDOS DE AMÉRICA</t>
+  </si>
+  <si>
+    <t>Naturaleza</t>
+  </si>
+  <si>
+    <t>Naturaleza de cuentas</t>
+  </si>
+  <si>
+    <t>Deudora</t>
+  </si>
+  <si>
+    <t>Acreedora</t>
+  </si>
+  <si>
+    <t>Disminuyen su valor con anotaciones en el debe (se aumenta la deuda u obligación que la empresa tiene contraída) y aumenta su valor con anotaciones en el haber (disminuye la deuda u obligación contraída).</t>
+  </si>
+  <si>
+    <t>Aumentan su valor mediante anotaciones en el debe y disminuyen su valor mediante anotaciones en el haber.</t>
   </si>
 </sst>
 </file>
@@ -646,7 +666,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFDD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
       <fill>
@@ -712,9 +743,6 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -760,23 +788,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TblCatalogoCuentas" displayName="TblCatalogoCuentas" ref="A1:E146" totalsRowShown="0">
-  <autoFilter ref="A1:E146"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TblCatalogoCuentas" displayName="TblCatalogoCuentas" ref="A1:F146" totalsRowShown="0">
+  <autoFilter ref="A1:F146"/>
   <sortState ref="A2:D38">
     <sortCondition ref="A1:A38"/>
   </sortState>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Código" dataDxfId="9"/>
-    <tableColumn id="2" name="Código extendido" dataDxfId="10">
+  <tableColumns count="6">
+    <tableColumn id="1" name="Código" dataDxfId="10"/>
+    <tableColumn id="2" name="Código extendido" dataDxfId="11">
       <calculatedColumnFormula>TblCatalogoCuentas[[#This Row],[Código]] &amp; REPT(" ",Configuraciones!$B$4 - LEN(TblCatalogoCuentas[[#This Row],[Código]]))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" name="Nivel">
       <calculatedColumnFormula>LEN(TblCatalogoCuentas[[#This Row],[Código]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Descripción" dataDxfId="7"/>
-    <tableColumn id="5" name="Etiqueta" dataDxfId="8">
+    <tableColumn id="4" name="Descripción" dataDxfId="9"/>
+    <tableColumn id="5" name="Etiqueta" dataDxfId="1">
       <calculatedColumnFormula>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="6" name="Naturaleza" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -786,15 +815,26 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TblLibroDiario" displayName="TblLibroDiario" ref="A7:G9" totalsRowShown="0">
   <autoFilter ref="A7:G9"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Correlativo" dataDxfId="6">
+    <tableColumn id="1" name="Correlativo" dataDxfId="8">
       <calculatedColumnFormula>ROW(TblLibroDiario[[#This Row],[Correlativo]])-ROW(TblLibroDiario[[#Headers],[Correlativo]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Fecha" dataDxfId="5"/>
-    <tableColumn id="3" name="Cuenta" dataDxfId="4"/>
-    <tableColumn id="4" name="Descripción" dataDxfId="3"/>
-    <tableColumn id="5" name="Referencia" dataDxfId="2"/>
-    <tableColumn id="6" name="Debe" dataDxfId="1"/>
-    <tableColumn id="7" name="Haber" dataDxfId="0"/>
+    <tableColumn id="2" name="Fecha" dataDxfId="7"/>
+    <tableColumn id="3" name="Cuenta" dataDxfId="6"/>
+    <tableColumn id="4" name="Descripción" dataDxfId="5"/>
+    <tableColumn id="5" name="Referencia" dataDxfId="4"/>
+    <tableColumn id="6" name="Debe" dataDxfId="3"/>
+    <tableColumn id="7" name="Haber" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="TblNaturalezaCuentas" displayName="TblNaturalezaCuentas" ref="A1:B3" totalsRowShown="0">
+  <autoFilter ref="A1:B3"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Naturaleza de cuentas"/>
+    <tableColumn id="2" name="Descripción"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1129,8 +1169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1156,6 +1196,9 @@
       <c r="E1" t="s">
         <v>149</v>
       </c>
+      <c r="F1" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
@@ -1176,6 +1219,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">1 - ACTIVO </v>
       </c>
+      <c r="F2" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -1197,6 +1243,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">11 - ACTIVO CORRIENTE </v>
       </c>
+      <c r="F3" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -1218,6 +1267,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v>111 - EFECTIVO Y EQUIVALENTES</v>
       </c>
+      <c r="F4" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -1239,6 +1291,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v>111001 - CAJA</v>
       </c>
+      <c r="F5" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -1260,6 +1315,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v>111002 - BANCOS</v>
       </c>
+      <c r="F6" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -1281,6 +1339,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v>112 - CUENTAS POR COBRAR</v>
       </c>
+      <c r="F7" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -1302,6 +1363,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">112001 - PRÉSTAMOS Y ANTICIPOS A EMPLEADOS </v>
       </c>
+      <c r="F8" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -1323,6 +1387,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">112002 - DOCUMENTOS POR COBRAR </v>
       </c>
+      <c r="F9" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -1344,6 +1411,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">112003 - IVA POR RECLAMAR </v>
       </c>
+      <c r="F10" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -1365,6 +1435,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">112004 - ESTIMACIÓN PARA CUENTAS INCOBRABLES </v>
       </c>
+      <c r="F11" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -1386,6 +1459,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">113 - INVENTARIOS </v>
       </c>
+      <c r="F12" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -1407,6 +1483,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">113001 - INVENTARIO MORTADELA </v>
       </c>
+      <c r="F13" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -1428,6 +1507,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">113002 - INVENTARIO JAMÓN </v>
       </c>
+      <c r="F14" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -1449,6 +1531,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v>113003 - INVENTARIO CHORIZOS</v>
       </c>
+      <c r="F15" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -1470,6 +1555,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">113004 - INVENTARIO SALAMI </v>
       </c>
+      <c r="F16" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -1491,6 +1579,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v>113005 - INVENTARIO SALCHICHAS</v>
       </c>
+      <c r="F17" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -1512,6 +1603,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">113006 - INVENTARIO CARNE EN CANAL </v>
       </c>
+      <c r="F18" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -1533,6 +1627,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v>113007 - INVENTARIO CARNE DESPOSTADA</v>
       </c>
+      <c r="F19" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -1554,6 +1651,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">114 - PAGOS ANTICIPADOS </v>
       </c>
+      <c r="F20" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -1575,6 +1675,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">114001 - PAPELERÍA Y ÚTILES </v>
       </c>
+      <c r="F21" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -1596,6 +1699,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v>114002 - SEGUROS PAGADOS POR ANTICIPADO</v>
       </c>
+      <c r="F22" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -1617,6 +1723,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">115 - IVA CRÉDITO FISCAL </v>
       </c>
+      <c r="F23" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="I23" s="3"/>
     </row>
     <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -1638,6 +1747,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">12 - ACTIVO NO CORRIENTE </v>
       </c>
+      <c r="F24" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -1659,6 +1771,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">121 - PROPIEDAD, PLANTA Y EQUIPO </v>
       </c>
+      <c r="F25" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -1680,6 +1795,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v>121001 - BIENES INMUEBLES</v>
       </c>
+      <c r="F26" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="H26" s="3"/>
     </row>
     <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -1701,6 +1819,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">121001001 - TERRENOS </v>
       </c>
+      <c r="F27" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -1722,6 +1843,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">121001002 - INSTALACIONES </v>
       </c>
+      <c r="F28" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -1743,6 +1867,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">121002 - BIENES MUEBLES </v>
       </c>
+      <c r="F29" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -1764,6 +1891,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v>121002001 - MOBILIARIO Y EQUIPO DE OFICINA</v>
       </c>
+      <c r="F30" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -1785,6 +1915,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v>121002002 - MOBILIARIO Y EQUIPO DE VENTA</v>
       </c>
+      <c r="F31" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="H31" s="3"/>
     </row>
     <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -1806,6 +1939,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">121002003 - EQUIPO DE TRANSPORTE </v>
       </c>
+      <c r="F32" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -1827,6 +1963,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v>121002004 - EQUIPO DE SEGURIDAD</v>
       </c>
+      <c r="F33" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="H33" s="3"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -1848,6 +1987,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">121003 - DEPRECIACIÓN ACUMULADA </v>
       </c>
+      <c r="F34" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="H34" s="3"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -1869,6 +2011,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">121003001 - DEPRECIACIÓN ACUMULADA DE INSTALACIONES </v>
       </c>
+      <c r="F35" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="H35" s="3"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -1890,6 +2035,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">121003002 - DEPRECIACIÓN ACUMULADA MOBILIARIO Y EQUIPO DE OFICINA </v>
       </c>
+      <c r="F36" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="H36" s="3"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -1911,6 +2059,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v>121003003 - DEPRECIACIÓN ACUMULADA MOBILIARIO Y EQUIPO DE VENTA</v>
       </c>
+      <c r="F37" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="H37" s="3"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -1932,6 +2083,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">121003004 - DEPRECIACIÓN ACUMULADA EQUIPO DE TRANSPORTE </v>
       </c>
+      <c r="F38" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="H38" s="3"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -1953,6 +2107,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">121003005 - DEPRECIACIÓN ACUMULADA EQUIPO DE SEGURIDAD </v>
       </c>
+      <c r="F39" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="H39" s="3"/>
     </row>
     <row r="40" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -1974,6 +2131,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">122 - INTANGIBLES </v>
       </c>
+      <c r="F40" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="I40" s="3"/>
     </row>
     <row r="41" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -1995,6 +2155,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v>122001 - PATENTES Y MARCA</v>
       </c>
+      <c r="F41" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="H41" s="3"/>
     </row>
     <row r="42" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2016,6 +2179,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v>122002 - SOFTWARE</v>
       </c>
+      <c r="F42" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="H42" s="3"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -2037,6 +2203,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">122003 - AMORTIZACIÓN ACUMULADA DE INTANGIBLES </v>
       </c>
+      <c r="F43" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="H43" s="3"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -2058,6 +2227,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">122003001 - AMORTIZACIÓN ACUMULADA PATENTES Y MARCA </v>
       </c>
+      <c r="F44" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="H44" s="3"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -2079,6 +2251,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">122003002 - AMORTIZACIÓN ACUMULADA SOFTWARE </v>
       </c>
+      <c r="F45" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="H45" s="3"/>
     </row>
     <row r="46" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2100,6 +2275,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">123 - DEUDORES COMERCIALES Y OTRAS CUENTAS POR COBRAR A LARGO PLAZO </v>
       </c>
+      <c r="F46" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="I46" s="4"/>
     </row>
     <row r="47" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2121,6 +2299,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v>124 - INVERSIONES FINANCIERAS A LARGO PLAZO</v>
       </c>
+      <c r="F47" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="I47" s="3"/>
     </row>
     <row r="48" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2142,6 +2323,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">2 - PASIVO </v>
       </c>
+      <c r="F48" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="I48" s="2"/>
     </row>
     <row r="49" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2163,6 +2347,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">21 - PASIVO CORRIENTE </v>
       </c>
+      <c r="F49" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="I49" s="2"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
@@ -2184,6 +2371,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v>211 - PRÉSTAMOS Y SOBREGIROS BANCARIOS A CORTO PLAZO</v>
       </c>
+      <c r="F50" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="I50" s="3"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
@@ -2205,6 +2395,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">212 - PORCIÓN CORRIENTE DE PRESTAMOS A LARGO PLAZO </v>
       </c>
+      <c r="F51" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="I51" s="3"/>
     </row>
     <row r="52" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2226,6 +2419,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">213 - ACREEDORES COMERCIALES Y OTRAS CUENTAS POR PAGAR </v>
       </c>
+      <c r="F52" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="I52" s="3"/>
     </row>
     <row r="53" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2247,6 +2443,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v>213001 - PROVEEDORES LOCALES</v>
       </c>
+      <c r="F53" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="H53" s="3"/>
     </row>
     <row r="54" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2268,6 +2467,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v>213002 - DOCUMENTOS POR PAGAR</v>
       </c>
+      <c r="F54" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="H54" s="3"/>
     </row>
     <row r="55" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2289,6 +2491,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">213003 - INTERESES POR PAGAR </v>
       </c>
+      <c r="F55" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="H55" s="3"/>
     </row>
     <row r="56" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2310,6 +2515,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v>214 - RETENCIONES LEGALES Y OTROS ACREEDORES POR PAGAR</v>
       </c>
+      <c r="F56" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="I56" s="3"/>
     </row>
     <row r="57" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2331,6 +2539,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v>214001 - ISSS- SALUD</v>
       </c>
+      <c r="F57" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="H57" s="3"/>
     </row>
     <row r="58" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2352,6 +2563,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v>214002 - UNIDAD DE PENSIONES ISSS</v>
       </c>
+      <c r="F58" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="H58" s="3"/>
     </row>
     <row r="59" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2373,6 +2587,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v>214003 - IMPUESTO SOBRE LA RENTA EMPLEADOS PERMANENTES</v>
       </c>
+      <c r="F59" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="H59" s="3"/>
     </row>
     <row r="60" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2394,6 +2611,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">214004 - IMPUESTO SOBRE LA RENTA SERVICIOS </v>
       </c>
+      <c r="F60" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="H60" s="3"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
@@ -2415,6 +2635,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">214005 - AFP CONFÍA </v>
       </c>
+      <c r="F61" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="H61" s="3"/>
     </row>
     <row r="62" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2436,6 +2659,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v>214006 - AFP CRECER</v>
       </c>
+      <c r="F62" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="H62" s="3"/>
     </row>
     <row r="63" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2457,6 +2683,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v>215 - OBLIGACIONES POR BENEFICIOS A EMPLEADOS</v>
       </c>
+      <c r="F63" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="I63" s="3"/>
     </row>
     <row r="64" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2478,6 +2707,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">215001 - SUELDOS </v>
       </c>
+      <c r="F64" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="H64" s="3"/>
     </row>
     <row r="65" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2499,6 +2731,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">215002 - VACACIONES </v>
       </c>
+      <c r="F65" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="H65" s="3"/>
     </row>
     <row r="66" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2520,6 +2755,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v>215003 - AGUINALDOS</v>
       </c>
+      <c r="F66" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="H66" s="3"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
@@ -2541,6 +2779,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v>215004 - VIÁTICOS</v>
       </c>
+      <c r="F67" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="H67" s="3"/>
     </row>
     <row r="68" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2562,6 +2803,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">215005 - INDEMNIZACIONES </v>
       </c>
+      <c r="F68" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="H68" s="3"/>
     </row>
     <row r="69" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2583,6 +2827,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">215006 - COMISIONES POR VENTAS </v>
       </c>
+      <c r="F69" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="H69" s="3"/>
     </row>
     <row r="70" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2604,6 +2851,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">215007 - BONIFICACIONES </v>
       </c>
+      <c r="F70" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="H70" s="3"/>
     </row>
     <row r="71" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2625,6 +2875,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">216 - IMPUESTOS POR PAGAR </v>
       </c>
+      <c r="F71" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="I71" s="3"/>
     </row>
     <row r="72" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2646,6 +2899,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v>216001 - IVA POR PAGAR</v>
       </c>
+      <c r="F72" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="H72" s="3"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
@@ -2667,6 +2923,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">217 - IVA DÉBITO FISCAL </v>
       </c>
+      <c r="F73" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="I73" s="3"/>
     </row>
     <row r="74" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2688,6 +2947,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v>217003 - CONSUMIDORES FINALES</v>
       </c>
+      <c r="F74" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="H74" s="3"/>
     </row>
     <row r="75" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2709,6 +2971,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v>218 - ASUNTOS PENDIENTES</v>
       </c>
+      <c r="F75" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="I75" s="3"/>
     </row>
     <row r="76" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2730,6 +2995,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">218001 - SOBRANTES DE CAJA </v>
       </c>
+      <c r="F76" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="H76" s="3"/>
     </row>
     <row r="77" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2751,6 +3019,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">219 - ANTICIPOS DE CLIENTES </v>
       </c>
+      <c r="F77" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="I77" s="3"/>
     </row>
     <row r="78" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2772,6 +3043,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">219001 - REBAJAS Y DEVOLUCIONES PENDIENTES DE APLICAR </v>
       </c>
+      <c r="F78" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="H78" s="3"/>
     </row>
     <row r="79" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2793,6 +3067,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">22 - PASIVO NO CORRIENTE </v>
       </c>
+      <c r="F79" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="I79" s="2"/>
     </row>
     <row r="80" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2814,6 +3091,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">221 - PASIVO POR IMPUESTOS DIFERIDOS </v>
       </c>
+      <c r="F80" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="I80" s="3"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
@@ -2835,6 +3115,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">222 - PRÉSTAMOS BANCARIOS A LARGO PLAZO </v>
       </c>
+      <c r="F81" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="I81" s="3"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
@@ -2856,6 +3139,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">222001 - GARANTÍA HIPOTECARIA  </v>
       </c>
+      <c r="F82" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="H82" s="3"/>
     </row>
     <row r="83" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2877,6 +3163,7 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">3 - PATRIMONIO </v>
       </c>
+      <c r="F83" s="7"/>
       <c r="I83" s="2"/>
     </row>
     <row r="84" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2898,6 +3185,7 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">31 - CAPITAL CONTABLE </v>
       </c>
+      <c r="F84" s="7"/>
       <c r="I84" s="2"/>
     </row>
     <row r="85" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2919,6 +3207,7 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">311 - CAPITAL </v>
       </c>
+      <c r="F85" s="7"/>
       <c r="I85" s="3"/>
     </row>
     <row r="86" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2940,6 +3229,7 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">312 - RESULTADO DEL EJERCICIO </v>
       </c>
+      <c r="F86" s="7"/>
       <c r="I86" s="3"/>
     </row>
     <row r="87" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2961,6 +3251,7 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">312001 - UTILIDAD DEL PRESENTE EJERCICIO </v>
       </c>
+      <c r="F87" s="7"/>
       <c r="H87" s="3"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
@@ -2982,6 +3273,7 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">312002 - PÉRDIDA DEL PRESENTE EJERCICIO </v>
       </c>
+      <c r="F88" s="7"/>
       <c r="H88" s="3"/>
     </row>
     <row r="89" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3003,6 +3295,7 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">4 - CUENTAS DE RESULTADO DEUDORAS </v>
       </c>
+      <c r="F89" s="7"/>
       <c r="I89" s="2"/>
     </row>
     <row r="90" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3024,6 +3317,7 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">41 - COMPRAS Y COSTOS </v>
       </c>
+      <c r="F90" s="7"/>
       <c r="I90" s="2"/>
     </row>
     <row r="91" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3045,6 +3339,7 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">411 - COMPRAS </v>
       </c>
+      <c r="F91" s="7"/>
       <c r="I91" s="3"/>
     </row>
     <row r="92" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3066,6 +3361,7 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v>411001 - COMPRAS AL CONTADO</v>
       </c>
+      <c r="F92" s="7"/>
       <c r="H92" s="3"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
@@ -3087,6 +3383,7 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v>411002 - COMPRAS AL CRÉDITO</v>
       </c>
+      <c r="F93" s="7"/>
       <c r="H93" s="3"/>
     </row>
     <row r="94" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3108,6 +3405,7 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">412 - GASTOS SOBRE COMPRAS </v>
       </c>
+      <c r="F94" s="7"/>
       <c r="I94" s="3"/>
     </row>
     <row r="95" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3129,6 +3427,7 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v>413 - REBAJAS, DEVOLUCIONES SOBRE VENTAS</v>
       </c>
+      <c r="F95" s="7"/>
       <c r="I95" s="3"/>
     </row>
     <row r="96" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3150,6 +3449,7 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v>413001 - REBAJAS Y DEVOLUCIONES SOBRE VENTAS AL CONTADO</v>
       </c>
+      <c r="F96" s="7"/>
       <c r="H96" s="3"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
@@ -3171,6 +3471,7 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">413002 - REBAJAS Y DEVOLUCIONES SOBRE VENTAS AL CRÉDITO </v>
       </c>
+      <c r="F97" s="7"/>
       <c r="H97" s="3"/>
     </row>
     <row r="98" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3192,6 +3493,7 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">414 - COSTO DE VENTA </v>
       </c>
+      <c r="F98" s="7"/>
       <c r="I98" s="3"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
@@ -3213,6 +3515,7 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v>414001 - COSTO DE VENTA DE MERCANCÍAS</v>
       </c>
+      <c r="F99" s="7"/>
       <c r="H99" s="3"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
@@ -3234,6 +3537,7 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">42 - GASTOS DE OPERACIÓN </v>
       </c>
+      <c r="F100" s="7"/>
       <c r="I100" s="2"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
@@ -3255,6 +3559,7 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">421 - GASTOS DE ADMINISTRACIÓN </v>
       </c>
+      <c r="F101" s="7"/>
       <c r="I101" s="3"/>
     </row>
     <row r="102" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3276,6 +3581,7 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v>421001 - SUELDOS</v>
       </c>
+      <c r="F102" s="7"/>
       <c r="H102" s="3"/>
     </row>
     <row r="103" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3297,6 +3603,7 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v>421002 - VACACIONES Y BONIFICACIONES</v>
       </c>
+      <c r="F103" s="7"/>
       <c r="H103" s="3"/>
     </row>
     <row r="104" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3318,6 +3625,7 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">421003 - AGUINALDOS Y GRATIFICACIONES </v>
       </c>
+      <c r="F104" s="7"/>
       <c r="H104" s="3"/>
     </row>
     <row r="105" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3339,6 +3647,7 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">421004 - SEGURO SOCIAL </v>
       </c>
+      <c r="F105" s="7"/>
       <c r="H105" s="3"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
@@ -3360,6 +3669,7 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">421005 - PAPELERÍA Y ÚTILES </v>
       </c>
+      <c r="F106" s="7"/>
       <c r="H106" s="3"/>
     </row>
     <row r="107" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3381,6 +3691,7 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v>421006 - IMPUESTOS</v>
       </c>
+      <c r="F107" s="7"/>
       <c r="H107" s="3"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
@@ -3402,6 +3713,7 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">421007 - LUZ ELÉCTRICA </v>
       </c>
+      <c r="F108" s="7"/>
       <c r="H108" s="3"/>
     </row>
     <row r="109" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3423,6 +3735,7 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">422 - GASTOS DE VENTA </v>
       </c>
+      <c r="F109" s="7"/>
       <c r="I109" s="3"/>
     </row>
     <row r="110" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3444,6 +3757,7 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v>422001 - SUELDOS</v>
       </c>
+      <c r="F110" s="7"/>
       <c r="H110" s="3"/>
     </row>
     <row r="111" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3465,6 +3779,7 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v>422002 - VACACIONES Y BONIFICACIONES</v>
       </c>
+      <c r="F111" s="7"/>
       <c r="H111" s="3"/>
     </row>
     <row r="112" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3486,6 +3801,7 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">422003 - AGUINALDOS Y GRATIFICACIONES </v>
       </c>
+      <c r="F112" s="7"/>
       <c r="H112" s="3"/>
     </row>
     <row r="113" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3507,6 +3823,7 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">422004 - SEGURO SOCIAL </v>
       </c>
+      <c r="F113" s="7"/>
       <c r="H113" s="3"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
@@ -3528,6 +3845,7 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">422005 - PAPELERÍA Y ÚTILES </v>
       </c>
+      <c r="F114" s="7"/>
       <c r="H114" s="3"/>
     </row>
     <row r="115" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3549,6 +3867,7 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v>422006 - IMPUESTOS</v>
       </c>
+      <c r="F115" s="7"/>
       <c r="H115" s="3"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
@@ -3570,6 +3889,7 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">422007 - LUZ ELÉCTRICA </v>
       </c>
+      <c r="F116" s="7"/>
       <c r="H116" s="3"/>
     </row>
     <row r="117" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3591,6 +3911,7 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">423 - GASTOS FINANCIEROS </v>
       </c>
+      <c r="F117" s="7"/>
       <c r="I117" s="3"/>
     </row>
     <row r="118" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3612,6 +3933,7 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v>423001 - INTERESES</v>
       </c>
+      <c r="F118" s="7"/>
       <c r="H118" s="3"/>
     </row>
     <row r="119" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3633,6 +3955,7 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">423002 - BONIFICACIONES A CLIENTES </v>
       </c>
+      <c r="F119" s="7"/>
       <c r="H119" s="3"/>
     </row>
     <row r="120" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3654,6 +3977,7 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v>423003 - OTROS</v>
       </c>
+      <c r="F120" s="7"/>
       <c r="H120" s="3"/>
     </row>
     <row r="121" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3675,6 +3999,7 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">424 - OTROS GASTOS NO OPERACIONALES </v>
       </c>
+      <c r="F121" s="7"/>
       <c r="I121" s="3"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
@@ -3696,6 +4021,7 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">424001 - PÉRDIDA DE CAPITAL </v>
       </c>
+      <c r="F122" s="7"/>
       <c r="H122" s="3"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
@@ -3717,6 +4043,7 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">424002 - PÉRDIDA DE INVERSIONES </v>
       </c>
+      <c r="F123" s="7"/>
       <c r="H123" s="3"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
@@ -3738,6 +4065,7 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">424003 - PÉRDIDA EN INVENTARIOS </v>
       </c>
+      <c r="F124" s="7"/>
       <c r="H124" s="3"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
@@ -3759,6 +4087,7 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">424004 - PÉRDIDA EN VENTA DE ACTIVO FIJO </v>
       </c>
+      <c r="F125" s="7"/>
       <c r="H125" s="3"/>
     </row>
     <row r="126" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3780,6 +4109,7 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">43 - GASTO POR IMPUESTO SOBRE LAS GANACIAS </v>
       </c>
+      <c r="F126" s="7"/>
       <c r="I126" s="2"/>
     </row>
     <row r="127" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3801,6 +4131,7 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">431 - GASTOS DE IMPUESTOS SOBRE LA RENTA </v>
       </c>
+      <c r="F127" s="7"/>
       <c r="I127" s="3"/>
     </row>
     <row r="128" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3822,6 +4153,7 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">431001 - GASTO DE IMPUESTO SOBRE LA RENTA CORRIENTE </v>
       </c>
+      <c r="F128" s="7"/>
       <c r="H128" s="3"/>
     </row>
     <row r="129" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3843,6 +4175,7 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">5 - CUENTAS DE RESULTADO ACREEDORAS </v>
       </c>
+      <c r="F129" s="7"/>
       <c r="I129" s="2"/>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
@@ -3864,6 +4197,7 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">51 - INGRESOS DE OPERACIÓN </v>
       </c>
+      <c r="F130" s="7"/>
       <c r="I130" s="2"/>
     </row>
     <row r="131" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3885,6 +4219,7 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">511 - VENTAS </v>
       </c>
+      <c r="F131" s="7"/>
       <c r="I131" s="3"/>
     </row>
     <row r="132" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3906,6 +4241,7 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v>511001 - VENTAS AL CONTADO</v>
       </c>
+      <c r="F132" s="7"/>
       <c r="H132" s="3"/>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
@@ -3927,6 +4263,7 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">511002 - VENTAS AL CRÉDITO </v>
       </c>
+      <c r="F133" s="7"/>
       <c r="H133" s="3"/>
     </row>
     <row r="134" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3948,6 +4285,7 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">512 - REBAJAS, DEVOLUCIONES SOBRE COMPRAS </v>
       </c>
+      <c r="F134" s="7"/>
       <c r="I134" s="3"/>
     </row>
     <row r="135" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3969,6 +4307,7 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v>512001 - REBAJAS SOBRE COMPRAS</v>
       </c>
+      <c r="F135" s="7"/>
       <c r="H135" s="3"/>
     </row>
     <row r="136" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3990,6 +4329,7 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">512002 - DEVOLUCIONES SOBRE COMPRAS  </v>
       </c>
+      <c r="F136" s="7"/>
       <c r="H136" s="3"/>
     </row>
     <row r="137" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -4011,6 +4351,7 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">52 - INGRESOS NO OPERACIONALES </v>
       </c>
+      <c r="F137" s="7"/>
       <c r="I137" s="2"/>
     </row>
     <row r="138" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -4032,6 +4373,7 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v>521 - UTILIDAD POR VENTA DE PROPIEDAD, PLANTA Y EQUIPO</v>
       </c>
+      <c r="F138" s="7"/>
       <c r="I138" s="3"/>
     </row>
     <row r="139" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -4053,6 +4395,7 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v>521001 - UTILIDAD POR VENTA BIENES INMUEBLES</v>
       </c>
+      <c r="F139" s="7"/>
       <c r="H139" s="3"/>
     </row>
     <row r="140" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -4074,6 +4417,7 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v>521002 - UTILIDAD POR VENTA BIENES MUEBLES</v>
       </c>
+      <c r="F140" s="7"/>
       <c r="H140" s="3"/>
     </row>
     <row r="141" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -4095,6 +4439,7 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v>522 - OTROS INGRESOS NO OPERACIONALES</v>
       </c>
+      <c r="F141" s="7"/>
       <c r="I141" s="3"/>
     </row>
     <row r="142" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -4116,6 +4461,7 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v>522001 - INTERESES</v>
       </c>
+      <c r="F142" s="7"/>
       <c r="H142" s="3"/>
     </row>
     <row r="143" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -4137,6 +4483,7 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">522002 - DIVERSOS </v>
       </c>
+      <c r="F143" s="7"/>
       <c r="H143" s="3"/>
     </row>
     <row r="144" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -4158,6 +4505,7 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">6 - CUENTAS DE CIERRE </v>
       </c>
+      <c r="F144" s="7"/>
       <c r="I144" s="2"/>
     </row>
     <row r="145" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -4179,6 +4527,7 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">61 - CUENTA LIQUIDADORA </v>
       </c>
+      <c r="F145" s="7"/>
       <c r="I145" s="2"/>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
@@ -4200,9 +4549,15 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">611 - PÉRDIDAS Y GANANCIAS </v>
       </c>
+      <c r="F146" s="7"/>
       <c r="I146" s="3"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F146">
+      <formula1>TblNaturalezaCuentas_Aux</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -4353,12 +4708,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH(1,TblCatalogoCuentas[Código],0), 4)</f>
+        <v xml:space="preserve">ACTIVO </v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4367,7 +4731,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
@@ -4399,4 +4765,50 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.44140625" customWidth="1"/>
+    <col min="2" max="2" width="172.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Sistema Contable.xlsx
+++ b/Sistema Contable.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="187">
   <si>
     <t>Nivel maximo de cuentas</t>
   </si>
@@ -544,17 +544,69 @@
   </si>
   <si>
     <t>Aumentan su valor mediante anotaciones en el debe y disminuyen su valor mediante anotaciones en el haber.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este no sabia como dejarlo porque puede ser deudor o acreedor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiene que dar cero </t>
+  </si>
+  <si>
+    <t>Código de cuenta</t>
+  </si>
+  <si>
+    <t>Balance General</t>
+  </si>
+  <si>
+    <t>Del</t>
+  </si>
+  <si>
+    <t>Al</t>
+  </si>
+  <si>
+    <t>Nivel de cuenta</t>
+  </si>
+  <si>
+    <t>Etiqueta de cuenta</t>
+  </si>
+  <si>
+    <t>Naturaleza de cuenta</t>
+  </si>
+  <si>
+    <t>TOTAL ACTIVO CORRIENTE</t>
+  </si>
+  <si>
+    <t>TOTAL ACTIVO NO CORRIENTE</t>
+  </si>
+  <si>
+    <t>TOTAL ACTIVO</t>
+  </si>
+  <si>
+    <t>TOTAL PASIVO CORRIENTE</t>
+  </si>
+  <si>
+    <t>TOTAL PASIVO NO CORRIENTE</t>
+  </si>
+  <si>
+    <t>TOTAL PASIVO</t>
+  </si>
+  <si>
+    <t>TOTAL PATRIMONIO</t>
+  </si>
+  <si>
+    <t>TOTAL PASIVO + PATRIMONIO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -589,6 +641,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -604,7 +672,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -627,11 +695,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -644,7 +731,7 @@
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -656,28 +743,29 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFDD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
       <fill>
@@ -723,7 +811,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
+      <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -741,6 +829,20 @@
           <bgColor rgb="FFFFFFDD"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFDD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -765,9 +867,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -794,18 +893,18 @@
     <sortCondition ref="A1:A38"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="Código" dataDxfId="10"/>
-    <tableColumn id="2" name="Código extendido" dataDxfId="11">
+    <tableColumn id="1" name="Código" dataDxfId="11"/>
+    <tableColumn id="2" name="Código extendido" dataDxfId="10">
       <calculatedColumnFormula>TblCatalogoCuentas[[#This Row],[Código]] &amp; REPT(" ",Configuraciones!$B$4 - LEN(TblCatalogoCuentas[[#This Row],[Código]]))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" name="Nivel">
       <calculatedColumnFormula>LEN(TblCatalogoCuentas[[#This Row],[Código]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" name="Descripción" dataDxfId="9"/>
-    <tableColumn id="5" name="Etiqueta" dataDxfId="1">
+    <tableColumn id="5" name="Etiqueta" dataDxfId="8">
       <calculatedColumnFormula>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Naturaleza" dataDxfId="0"/>
+    <tableColumn id="6" name="Naturaleza" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -815,15 +914,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TblLibroDiario" displayName="TblLibroDiario" ref="A7:G9" totalsRowShown="0">
   <autoFilter ref="A7:G9"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Correlativo" dataDxfId="8">
+    <tableColumn id="1" name="Correlativo" dataDxfId="6">
       <calculatedColumnFormula>ROW(TblLibroDiario[[#This Row],[Correlativo]])-ROW(TblLibroDiario[[#Headers],[Correlativo]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Fecha" dataDxfId="7"/>
-    <tableColumn id="3" name="Cuenta" dataDxfId="6"/>
-    <tableColumn id="4" name="Descripción" dataDxfId="5"/>
-    <tableColumn id="5" name="Referencia" dataDxfId="4"/>
-    <tableColumn id="6" name="Debe" dataDxfId="3"/>
-    <tableColumn id="7" name="Haber" dataDxfId="2"/>
+    <tableColumn id="2" name="Fecha" dataDxfId="5"/>
+    <tableColumn id="3" name="Cuenta" dataDxfId="4"/>
+    <tableColumn id="4" name="Descripción" dataDxfId="3"/>
+    <tableColumn id="5" name="Referencia" dataDxfId="2"/>
+    <tableColumn id="6" name="Debe" dataDxfId="1"/>
+    <tableColumn id="7" name="Haber" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1136,15 +1235,15 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>155</v>
       </c>
@@ -1152,7 +1251,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>0</v>
       </c>
@@ -1169,15 +1268,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I146"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView topLeftCell="A64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.6640625" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
     <col min="4" max="4" width="51.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="68.6640625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="68.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -1988,7 +2087,7 @@
         <v xml:space="preserve">121003 - DEPRECIACIÓN ACUMULADA </v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H34" s="3"/>
     </row>
@@ -2012,7 +2111,7 @@
         <v xml:space="preserve">121003001 - DEPRECIACIÓN ACUMULADA DE INSTALACIONES </v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H35" s="3"/>
     </row>
@@ -2036,7 +2135,7 @@
         <v xml:space="preserve">121003002 - DEPRECIACIÓN ACUMULADA MOBILIARIO Y EQUIPO DE OFICINA </v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H36" s="3"/>
     </row>
@@ -2060,7 +2159,7 @@
         <v>121003003 - DEPRECIACIÓN ACUMULADA MOBILIARIO Y EQUIPO DE VENTA</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H37" s="3"/>
     </row>
@@ -2084,7 +2183,7 @@
         <v xml:space="preserve">121003004 - DEPRECIACIÓN ACUMULADA EQUIPO DE TRANSPORTE </v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H38" s="3"/>
     </row>
@@ -2108,7 +2207,7 @@
         <v xml:space="preserve">121003005 - DEPRECIACIÓN ACUMULADA EQUIPO DE SEGURIDAD </v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H39" s="3"/>
     </row>
@@ -2204,7 +2303,7 @@
         <v xml:space="preserve">122003 - AMORTIZACIÓN ACUMULADA DE INTANGIBLES </v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H43" s="3"/>
     </row>
@@ -2228,7 +2327,7 @@
         <v xml:space="preserve">122003001 - AMORTIZACIÓN ACUMULADA PATENTES Y MARCA </v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H44" s="3"/>
     </row>
@@ -2252,7 +2351,7 @@
         <v xml:space="preserve">122003002 - AMORTIZACIÓN ACUMULADA SOFTWARE </v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H45" s="3"/>
     </row>
@@ -3163,7 +3262,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">3 - PATRIMONIO </v>
       </c>
-      <c r="F83" s="7"/>
+      <c r="F83" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="I83" s="2"/>
     </row>
     <row r="84" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3185,7 +3286,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">31 - CAPITAL CONTABLE </v>
       </c>
-      <c r="F84" s="7"/>
+      <c r="F84" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="I84" s="2"/>
     </row>
     <row r="85" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3207,7 +3310,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">311 - CAPITAL </v>
       </c>
-      <c r="F85" s="7"/>
+      <c r="F85" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="I85" s="3"/>
     </row>
     <row r="86" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3229,7 +3334,12 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">312 - RESULTADO DEL EJERCICIO </v>
       </c>
-      <c r="F86" s="7"/>
+      <c r="F86" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G86" t="s">
+        <v>170</v>
+      </c>
       <c r="I86" s="3"/>
     </row>
     <row r="87" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3251,7 +3361,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">312001 - UTILIDAD DEL PRESENTE EJERCICIO </v>
       </c>
-      <c r="F87" s="7"/>
+      <c r="F87" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="H87" s="3"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
@@ -3273,7 +3385,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">312002 - PÉRDIDA DEL PRESENTE EJERCICIO </v>
       </c>
-      <c r="F88" s="7"/>
+      <c r="F88" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="H88" s="3"/>
     </row>
     <row r="89" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3295,7 +3409,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">4 - CUENTAS DE RESULTADO DEUDORAS </v>
       </c>
-      <c r="F89" s="7"/>
+      <c r="F89" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="I89" s="2"/>
     </row>
     <row r="90" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3317,7 +3433,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">41 - COMPRAS Y COSTOS </v>
       </c>
-      <c r="F90" s="7"/>
+      <c r="F90" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="I90" s="2"/>
     </row>
     <row r="91" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3339,7 +3457,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">411 - COMPRAS </v>
       </c>
-      <c r="F91" s="7"/>
+      <c r="F91" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="I91" s="3"/>
     </row>
     <row r="92" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3361,7 +3481,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v>411001 - COMPRAS AL CONTADO</v>
       </c>
-      <c r="F92" s="7"/>
+      <c r="F92" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="H92" s="3"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
@@ -3383,7 +3505,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v>411002 - COMPRAS AL CRÉDITO</v>
       </c>
-      <c r="F93" s="7"/>
+      <c r="F93" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="H93" s="3"/>
     </row>
     <row r="94" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3405,7 +3529,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">412 - GASTOS SOBRE COMPRAS </v>
       </c>
-      <c r="F94" s="7"/>
+      <c r="F94" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="I94" s="3"/>
     </row>
     <row r="95" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3427,7 +3553,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v>413 - REBAJAS, DEVOLUCIONES SOBRE VENTAS</v>
       </c>
-      <c r="F95" s="7"/>
+      <c r="F95" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="I95" s="3"/>
     </row>
     <row r="96" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3449,7 +3577,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v>413001 - REBAJAS Y DEVOLUCIONES SOBRE VENTAS AL CONTADO</v>
       </c>
-      <c r="F96" s="7"/>
+      <c r="F96" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="H96" s="3"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
@@ -3471,7 +3601,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">413002 - REBAJAS Y DEVOLUCIONES SOBRE VENTAS AL CRÉDITO </v>
       </c>
-      <c r="F97" s="7"/>
+      <c r="F97" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="H97" s="3"/>
     </row>
     <row r="98" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3493,7 +3625,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">414 - COSTO DE VENTA </v>
       </c>
-      <c r="F98" s="7"/>
+      <c r="F98" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="I98" s="3"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
@@ -3515,7 +3649,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v>414001 - COSTO DE VENTA DE MERCANCÍAS</v>
       </c>
-      <c r="F99" s="7"/>
+      <c r="F99" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="H99" s="3"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
@@ -3537,7 +3673,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">42 - GASTOS DE OPERACIÓN </v>
       </c>
-      <c r="F100" s="7"/>
+      <c r="F100" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="I100" s="2"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
@@ -3559,7 +3697,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">421 - GASTOS DE ADMINISTRACIÓN </v>
       </c>
-      <c r="F101" s="7"/>
+      <c r="F101" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="I101" s="3"/>
     </row>
     <row r="102" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3581,7 +3721,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v>421001 - SUELDOS</v>
       </c>
-      <c r="F102" s="7"/>
+      <c r="F102" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="H102" s="3"/>
     </row>
     <row r="103" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3603,7 +3745,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v>421002 - VACACIONES Y BONIFICACIONES</v>
       </c>
-      <c r="F103" s="7"/>
+      <c r="F103" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="H103" s="3"/>
     </row>
     <row r="104" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3625,7 +3769,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">421003 - AGUINALDOS Y GRATIFICACIONES </v>
       </c>
-      <c r="F104" s="7"/>
+      <c r="F104" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="H104" s="3"/>
     </row>
     <row r="105" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3647,7 +3793,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">421004 - SEGURO SOCIAL </v>
       </c>
-      <c r="F105" s="7"/>
+      <c r="F105" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="H105" s="3"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
@@ -3669,7 +3817,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">421005 - PAPELERÍA Y ÚTILES </v>
       </c>
-      <c r="F106" s="7"/>
+      <c r="F106" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="H106" s="3"/>
     </row>
     <row r="107" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3691,7 +3841,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v>421006 - IMPUESTOS</v>
       </c>
-      <c r="F107" s="7"/>
+      <c r="F107" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="H107" s="3"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
@@ -3713,7 +3865,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">421007 - LUZ ELÉCTRICA </v>
       </c>
-      <c r="F108" s="7"/>
+      <c r="F108" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="H108" s="3"/>
     </row>
     <row r="109" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3735,7 +3889,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">422 - GASTOS DE VENTA </v>
       </c>
-      <c r="F109" s="7"/>
+      <c r="F109" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="I109" s="3"/>
     </row>
     <row r="110" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3757,7 +3913,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v>422001 - SUELDOS</v>
       </c>
-      <c r="F110" s="7"/>
+      <c r="F110" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="H110" s="3"/>
     </row>
     <row r="111" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3779,7 +3937,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v>422002 - VACACIONES Y BONIFICACIONES</v>
       </c>
-      <c r="F111" s="7"/>
+      <c r="F111" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="H111" s="3"/>
     </row>
     <row r="112" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3801,7 +3961,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">422003 - AGUINALDOS Y GRATIFICACIONES </v>
       </c>
-      <c r="F112" s="7"/>
+      <c r="F112" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="H112" s="3"/>
     </row>
     <row r="113" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3823,7 +3985,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">422004 - SEGURO SOCIAL </v>
       </c>
-      <c r="F113" s="7"/>
+      <c r="F113" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="H113" s="3"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
@@ -3845,7 +4009,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">422005 - PAPELERÍA Y ÚTILES </v>
       </c>
-      <c r="F114" s="7"/>
+      <c r="F114" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="H114" s="3"/>
     </row>
     <row r="115" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3867,7 +4033,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v>422006 - IMPUESTOS</v>
       </c>
-      <c r="F115" s="7"/>
+      <c r="F115" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="H115" s="3"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
@@ -3889,7 +4057,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">422007 - LUZ ELÉCTRICA </v>
       </c>
-      <c r="F116" s="7"/>
+      <c r="F116" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="H116" s="3"/>
     </row>
     <row r="117" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3911,7 +4081,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">423 - GASTOS FINANCIEROS </v>
       </c>
-      <c r="F117" s="7"/>
+      <c r="F117" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="I117" s="3"/>
     </row>
     <row r="118" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3933,7 +4105,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v>423001 - INTERESES</v>
       </c>
-      <c r="F118" s="7"/>
+      <c r="F118" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="H118" s="3"/>
     </row>
     <row r="119" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3955,7 +4129,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">423002 - BONIFICACIONES A CLIENTES </v>
       </c>
-      <c r="F119" s="7"/>
+      <c r="F119" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="H119" s="3"/>
     </row>
     <row r="120" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3977,7 +4153,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v>423003 - OTROS</v>
       </c>
-      <c r="F120" s="7"/>
+      <c r="F120" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="H120" s="3"/>
     </row>
     <row r="121" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3999,7 +4177,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">424 - OTROS GASTOS NO OPERACIONALES </v>
       </c>
-      <c r="F121" s="7"/>
+      <c r="F121" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="I121" s="3"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
@@ -4021,7 +4201,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">424001 - PÉRDIDA DE CAPITAL </v>
       </c>
-      <c r="F122" s="7"/>
+      <c r="F122" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="H122" s="3"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
@@ -4043,7 +4225,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">424002 - PÉRDIDA DE INVERSIONES </v>
       </c>
-      <c r="F123" s="7"/>
+      <c r="F123" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="H123" s="3"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
@@ -4065,7 +4249,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">424003 - PÉRDIDA EN INVENTARIOS </v>
       </c>
-      <c r="F124" s="7"/>
+      <c r="F124" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="H124" s="3"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
@@ -4087,7 +4273,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">424004 - PÉRDIDA EN VENTA DE ACTIVO FIJO </v>
       </c>
-      <c r="F125" s="7"/>
+      <c r="F125" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="H125" s="3"/>
     </row>
     <row r="126" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -4109,7 +4297,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">43 - GASTO POR IMPUESTO SOBRE LAS GANACIAS </v>
       </c>
-      <c r="F126" s="7"/>
+      <c r="F126" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="I126" s="2"/>
     </row>
     <row r="127" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -4131,7 +4321,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">431 - GASTOS DE IMPUESTOS SOBRE LA RENTA </v>
       </c>
-      <c r="F127" s="7"/>
+      <c r="F127" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="I127" s="3"/>
     </row>
     <row r="128" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -4153,7 +4345,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">431001 - GASTO DE IMPUESTO SOBRE LA RENTA CORRIENTE </v>
       </c>
-      <c r="F128" s="7"/>
+      <c r="F128" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="H128" s="3"/>
     </row>
     <row r="129" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -4175,7 +4369,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">5 - CUENTAS DE RESULTADO ACREEDORAS </v>
       </c>
-      <c r="F129" s="7"/>
+      <c r="F129" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="I129" s="2"/>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
@@ -4197,7 +4393,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">51 - INGRESOS DE OPERACIÓN </v>
       </c>
-      <c r="F130" s="7"/>
+      <c r="F130" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="I130" s="2"/>
     </row>
     <row r="131" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -4219,7 +4417,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">511 - VENTAS </v>
       </c>
-      <c r="F131" s="7"/>
+      <c r="F131" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="I131" s="3"/>
     </row>
     <row r="132" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -4241,7 +4441,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v>511001 - VENTAS AL CONTADO</v>
       </c>
-      <c r="F132" s="7"/>
+      <c r="F132" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="H132" s="3"/>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
@@ -4263,7 +4465,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">511002 - VENTAS AL CRÉDITO </v>
       </c>
-      <c r="F133" s="7"/>
+      <c r="F133" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="H133" s="3"/>
     </row>
     <row r="134" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -4285,7 +4489,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">512 - REBAJAS, DEVOLUCIONES SOBRE COMPRAS </v>
       </c>
-      <c r="F134" s="7"/>
+      <c r="F134" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="I134" s="3"/>
     </row>
     <row r="135" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -4307,7 +4513,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v>512001 - REBAJAS SOBRE COMPRAS</v>
       </c>
-      <c r="F135" s="7"/>
+      <c r="F135" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="H135" s="3"/>
     </row>
     <row r="136" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -4329,7 +4537,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">512002 - DEVOLUCIONES SOBRE COMPRAS  </v>
       </c>
-      <c r="F136" s="7"/>
+      <c r="F136" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="H136" s="3"/>
     </row>
     <row r="137" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -4351,7 +4561,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">52 - INGRESOS NO OPERACIONALES </v>
       </c>
-      <c r="F137" s="7"/>
+      <c r="F137" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="I137" s="2"/>
     </row>
     <row r="138" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -4373,7 +4585,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v>521 - UTILIDAD POR VENTA DE PROPIEDAD, PLANTA Y EQUIPO</v>
       </c>
-      <c r="F138" s="7"/>
+      <c r="F138" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="I138" s="3"/>
     </row>
     <row r="139" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -4395,7 +4609,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v>521001 - UTILIDAD POR VENTA BIENES INMUEBLES</v>
       </c>
-      <c r="F139" s="7"/>
+      <c r="F139" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="H139" s="3"/>
     </row>
     <row r="140" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -4417,7 +4633,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v>521002 - UTILIDAD POR VENTA BIENES MUEBLES</v>
       </c>
-      <c r="F140" s="7"/>
+      <c r="F140" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="H140" s="3"/>
     </row>
     <row r="141" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -4439,7 +4657,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v>522 - OTROS INGRESOS NO OPERACIONALES</v>
       </c>
-      <c r="F141" s="7"/>
+      <c r="F141" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="I141" s="3"/>
     </row>
     <row r="142" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -4461,7 +4681,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v>522001 - INTERESES</v>
       </c>
-      <c r="F142" s="7"/>
+      <c r="F142" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="H142" s="3"/>
     </row>
     <row r="143" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -4483,7 +4705,9 @@
         <f>TblCatalogoCuentas[[#This Row],[Código]] &amp; " - " &amp; TblCatalogoCuentas[[#This Row],[Descripción]]</f>
         <v xml:space="preserve">522002 - DIVERSOS </v>
       </c>
-      <c r="F143" s="7"/>
+      <c r="F143" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="H143" s="3"/>
     </row>
     <row r="144" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -4550,6 +4774,9 @@
         <v xml:space="preserve">611 - PÉRDIDAS Y GANANCIAS </v>
       </c>
       <c r="F146" s="7"/>
+      <c r="G146" t="s">
+        <v>171</v>
+      </c>
       <c r="I146" s="3"/>
     </row>
   </sheetData>
@@ -4571,31 +4798,31 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.44140625" customWidth="1"/>
     <col min="4" max="4" width="38.44140625" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="str">
         <f>Configuraciones!B3</f>
         <v>Pajarito S.A. de C.V.</v>
       </c>
       <c r="B1" s="5"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>157</v>
       </c>
       <c r="B2" s="5"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>158</v>
       </c>
@@ -4603,7 +4830,7 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>159</v>
       </c>
@@ -4642,7 +4869,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>ROW(TblLibroDiario[[#This Row],[Correlativo]])-ROW(TblLibroDiario[[#Headers],[Correlativo]])</f>
         <v>1</v>
@@ -4659,10 +4886,10 @@
       <c r="E8" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14">
+      <c r="F8" s="14">
         <v>10</v>
       </c>
+      <c r="G8" s="14"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -4681,10 +4908,10 @@
       <c r="E9" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="F9" s="14">
-        <v>10</v>
-      </c>
-      <c r="G9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="4">
@@ -4708,22 +4935,2774 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5"/>
+  <dimension ref="A1:X59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="G49" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="6" width="0" hidden="1" customWidth="1"/>
+    <col min="7" max="10" width="3.77734375" customWidth="1"/>
+    <col min="11" max="11" width="55.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11.5546875" style="16"/>
+    <col min="14" max="19" width="0" hidden="1" customWidth="1"/>
+    <col min="20" max="22" width="3.77734375" customWidth="1"/>
+    <col min="23" max="23" width="48.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="str">
-        <f>INDEX(TblCatalogoCuentas[], MATCH(1,TblCatalogoCuentas[Código],0), 4)</f>
-        <v xml:space="preserve">ACTIVO </v>
-      </c>
-    </row>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="K1" s="5" t="str">
+        <f>Configuraciones!$B$3</f>
+        <v>Pajarito S.A. de C.V.</v>
+      </c>
+      <c r="L1" s="20"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="K2" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="L2" s="20"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="K3" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="L3" s="26">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="K4" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="L4" s="26">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="L5" s="17"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D6" t="s">
+        <v>178</v>
+      </c>
+      <c r="E6" t="s">
+        <v>147</v>
+      </c>
+      <c r="F6" t="s">
+        <v>148</v>
+      </c>
+      <c r="N6" t="s">
+        <v>172</v>
+      </c>
+      <c r="O6" t="s">
+        <v>176</v>
+      </c>
+      <c r="P6" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>178</v>
+      </c>
+      <c r="R6" t="s">
+        <v>147</v>
+      </c>
+      <c r="S6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A7,TblCatalogoCuentas[Código],0), 3)</f>
+        <v>1</v>
+      </c>
+      <c r="C7" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A7,TblCatalogoCuentas[Código],0), 5)</f>
+        <v xml:space="preserve">1 - ACTIVO </v>
+      </c>
+      <c r="D7" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A7,TblCatalogoCuentas[Código],0), 6)</f>
+        <v>Deudora</v>
+      </c>
+      <c r="E7">
+        <f>SUMIFS(TblLibroDiario[Debe],TblLibroDiario[Cuenta],"="&amp;$C7,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f>SUMIFS(TblLibroDiario[Haber],TblLibroDiario[Cuenta],"="&amp;$C7,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N7,TblCatalogoCuentas[Código],0), 3)</f>
+        <v>1</v>
+      </c>
+      <c r="P7" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N7,TblCatalogoCuentas[Código],0), 5)</f>
+        <v xml:space="preserve">2 - PASIVO </v>
+      </c>
+      <c r="Q7" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N7,TblCatalogoCuentas[Código],0), 6)</f>
+        <v>Acreedora</v>
+      </c>
+      <c r="R7">
+        <f>SUMIFS(TblLibroDiario[Debe],TblLibroDiario[Cuenta],"="&amp;$P7,TblLibroDiario[Fecha],"&gt;="&amp;Y$3,TblLibroDiario[Fecha],"&lt;="&amp;Y$4)</f>
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <f>SUMIFS(TblLibroDiario[Haber],TblLibroDiario[Cuenta],"="&amp;$P7,TblLibroDiario[Fecha],"&gt;="&amp;Y$3,TblLibroDiario[Fecha],"&lt;="&amp;Y$4)</f>
+        <v>0</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="G8" s="5"/>
+      <c r="N8">
+        <v>21</v>
+      </c>
+      <c r="O8">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N8,TblCatalogoCuentas[Código],0), 3)</f>
+        <v>2</v>
+      </c>
+      <c r="P8" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N8,TblCatalogoCuentas[Código],0), 5)</f>
+        <v xml:space="preserve">21 - PASIVO CORRIENTE </v>
+      </c>
+      <c r="Q8" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N8,TblCatalogoCuentas[Código],0), 6)</f>
+        <v>Acreedora</v>
+      </c>
+      <c r="R8">
+        <f>SUMIFS(TblLibroDiario[Debe],TblLibroDiario[Cuenta],"="&amp;$P8,TblLibroDiario[Fecha],"&gt;="&amp;Y$3,TblLibroDiario[Fecha],"&lt;="&amp;Y$4)</f>
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <f>SUMIFS(TblLibroDiario[Haber],TblLibroDiario[Cuenta],"="&amp;$P8,TblLibroDiario[Fecha],"&gt;="&amp;Y$3,TblLibroDiario[Fecha],"&lt;="&amp;Y$4)</f>
+        <v>0</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A9,TblCatalogoCuentas[Código],0), 3)</f>
+        <v>2</v>
+      </c>
+      <c r="C9" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A9,TblCatalogoCuentas[Código],0), 5)</f>
+        <v xml:space="preserve">11 - ACTIVO CORRIENTE </v>
+      </c>
+      <c r="D9" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A9,TblCatalogoCuentas[Código],0), 6)</f>
+        <v>Deudora</v>
+      </c>
+      <c r="E9">
+        <f>SUMIFS(TblLibroDiario[Debe],TblLibroDiario[Cuenta],"="&amp;$C9,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f>SUMIFS(TblLibroDiario[Haber],TblLibroDiario[Cuenta],"="&amp;$C9,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="20"/>
+      <c r="N9">
+        <v>211</v>
+      </c>
+      <c r="O9">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N9,TblCatalogoCuentas[Código],0), 3)</f>
+        <v>3</v>
+      </c>
+      <c r="P9" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N9,TblCatalogoCuentas[Código],0), 5)</f>
+        <v>211 - PRÉSTAMOS Y SOBREGIROS BANCARIOS A CORTO PLAZO</v>
+      </c>
+      <c r="Q9" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N9,TblCatalogoCuentas[Código],0), 6)</f>
+        <v>Acreedora</v>
+      </c>
+      <c r="R9">
+        <f>SUMIFS(TblLibroDiario[Debe],TblLibroDiario[Cuenta],"="&amp;$P9,TblLibroDiario[Fecha],"&gt;="&amp;Y$3,TblLibroDiario[Fecha],"&lt;="&amp;Y$4)</f>
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <f>SUMIFS(TblLibroDiario[Haber],TblLibroDiario[Cuenta],"="&amp;$P9,TblLibroDiario[Fecha],"&gt;="&amp;Y$3,TblLibroDiario[Fecha],"&lt;="&amp;Y$4)</f>
+        <v>0</v>
+      </c>
+      <c r="V9" t="s">
+        <v>56</v>
+      </c>
+      <c r="X9" s="16">
+        <f>IF(Q9="Deudora",R9-S9,S9-R9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>111</v>
+      </c>
+      <c r="B10">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A10,TblCatalogoCuentas[Código],0), 3)</f>
+        <v>3</v>
+      </c>
+      <c r="C10" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A10,TblCatalogoCuentas[Código],0), 5)</f>
+        <v>111 - EFECTIVO Y EQUIVALENTES</v>
+      </c>
+      <c r="D10" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A10,TblCatalogoCuentas[Código],0), 6)</f>
+        <v>Deudora</v>
+      </c>
+      <c r="E10">
+        <f>SUMIFS(TblLibroDiario[Debe],TblLibroDiario[Cuenta],"="&amp;$C10,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f>SUMIFS(TblLibroDiario[Haber],TblLibroDiario[Cuenta],"="&amp;$C10,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="N10">
+        <v>212</v>
+      </c>
+      <c r="O10">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N10,TblCatalogoCuentas[Código],0), 3)</f>
+        <v>3</v>
+      </c>
+      <c r="P10" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N10,TblCatalogoCuentas[Código],0), 5)</f>
+        <v xml:space="preserve">212 - PORCIÓN CORRIENTE DE PRESTAMOS A LARGO PLAZO </v>
+      </c>
+      <c r="Q10" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N10,TblCatalogoCuentas[Código],0), 6)</f>
+        <v>Acreedora</v>
+      </c>
+      <c r="R10">
+        <f>SUMIFS(TblLibroDiario[Debe],TblLibroDiario[Cuenta],"="&amp;$P10,TblLibroDiario[Fecha],"&gt;="&amp;Y$3,TblLibroDiario[Fecha],"&lt;="&amp;Y$4)</f>
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <f>SUMIFS(TblLibroDiario[Haber],TblLibroDiario[Cuenta],"="&amp;$P10,TblLibroDiario[Fecha],"&gt;="&amp;Y$3,TblLibroDiario[Fecha],"&lt;="&amp;Y$4)</f>
+        <v>0</v>
+      </c>
+      <c r="V10" t="s">
+        <v>57</v>
+      </c>
+      <c r="X10" s="16">
+        <f t="shared" ref="X10:X49" si="0">IF(Q10="Deudora",R10-S10,S10-R10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>111001</v>
+      </c>
+      <c r="B11">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A11,TblCatalogoCuentas[Código],0), 3)</f>
+        <v>6</v>
+      </c>
+      <c r="C11" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A11,TblCatalogoCuentas[Código],0), 5)</f>
+        <v>111001 - CAJA</v>
+      </c>
+      <c r="D11" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A11,TblCatalogoCuentas[Código],0), 6)</f>
+        <v>Deudora</v>
+      </c>
+      <c r="E11">
+        <f>SUMIFS(TblLibroDiario[Debe],TblLibroDiario[Cuenta],"="&amp;$C11,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <f>SUMIFS(TblLibroDiario[Haber],TblLibroDiario[Cuenta],"="&amp;$C11,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>5</v>
+      </c>
+      <c r="J11" t="s">
+        <v>5</v>
+      </c>
+      <c r="L11" s="16">
+        <f>IF(D11="Deudora",E11-F11,F11-E11)</f>
+        <v>5</v>
+      </c>
+      <c r="N11" s="22">
+        <v>213</v>
+      </c>
+      <c r="O11">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N11,TblCatalogoCuentas[Código],0), 3)</f>
+        <v>3</v>
+      </c>
+      <c r="P11" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N11,TblCatalogoCuentas[Código],0), 5)</f>
+        <v xml:space="preserve">213 - ACREEDORES COMERCIALES Y OTRAS CUENTAS POR PAGAR </v>
+      </c>
+      <c r="Q11" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N11,TblCatalogoCuentas[Código],0), 6)</f>
+        <v>Acreedora</v>
+      </c>
+      <c r="R11">
+        <f>SUMIFS(TblLibroDiario[Debe],TblLibroDiario[Cuenta],"="&amp;$P11,TblLibroDiario[Fecha],"&gt;="&amp;Y$3,TblLibroDiario[Fecha],"&lt;="&amp;Y$4)</f>
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <f>SUMIFS(TblLibroDiario[Haber],TblLibroDiario[Cuenta],"="&amp;$P11,TblLibroDiario[Fecha],"&gt;="&amp;Y$3,TblLibroDiario[Fecha],"&lt;="&amp;Y$4)</f>
+        <v>0</v>
+      </c>
+      <c r="V11" t="s">
+        <v>58</v>
+      </c>
+      <c r="X11" s="16"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>111002</v>
+      </c>
+      <c r="B12">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A12,TblCatalogoCuentas[Código],0), 3)</f>
+        <v>6</v>
+      </c>
+      <c r="C12" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A12,TblCatalogoCuentas[Código],0), 5)</f>
+        <v>111002 - BANCOS</v>
+      </c>
+      <c r="D12" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A12,TblCatalogoCuentas[Código],0), 6)</f>
+        <v>Deudora</v>
+      </c>
+      <c r="E12">
+        <f>SUMIFS(TblLibroDiario[Debe],TblLibroDiario[Cuenta],"="&amp;$C12,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f>SUMIFS(TblLibroDiario[Haber],TblLibroDiario[Cuenta],"="&amp;$C12,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12" s="16">
+        <f t="shared" ref="L12:L55" si="1">IF(D12="Deudora",E12-F12,F12-E12)</f>
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>213001</v>
+      </c>
+      <c r="O12">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N12,TblCatalogoCuentas[Código],0), 3)</f>
+        <v>6</v>
+      </c>
+      <c r="P12" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N12,TblCatalogoCuentas[Código],0), 5)</f>
+        <v>213001 - PROVEEDORES LOCALES</v>
+      </c>
+      <c r="Q12" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N12,TblCatalogoCuentas[Código],0), 6)</f>
+        <v>Acreedora</v>
+      </c>
+      <c r="R12">
+        <f>SUMIFS(TblLibroDiario[Debe],TblLibroDiario[Cuenta],"="&amp;$P12,TblLibroDiario[Fecha],"&gt;="&amp;Y$3,TblLibroDiario[Fecha],"&lt;="&amp;Y$4)</f>
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <f>SUMIFS(TblLibroDiario[Haber],TblLibroDiario[Cuenta],"="&amp;$P12,TblLibroDiario[Fecha],"&gt;="&amp;Y$3,TblLibroDiario[Fecha],"&lt;="&amp;Y$4)</f>
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>59</v>
+      </c>
+      <c r="X12" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>112</v>
+      </c>
+      <c r="B13">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A13,TblCatalogoCuentas[Código],0), 3)</f>
+        <v>3</v>
+      </c>
+      <c r="C13" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A13,TblCatalogoCuentas[Código],0), 5)</f>
+        <v>112 - CUENTAS POR COBRAR</v>
+      </c>
+      <c r="D13" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A13,TblCatalogoCuentas[Código],0), 6)</f>
+        <v>Deudora</v>
+      </c>
+      <c r="E13">
+        <f>SUMIFS(TblLibroDiario[Debe],TblLibroDiario[Cuenta],"="&amp;$C13,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f>SUMIFS(TblLibroDiario[Haber],TblLibroDiario[Cuenta],"="&amp;$C13,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="N13">
+        <v>213002</v>
+      </c>
+      <c r="O13">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N13,TblCatalogoCuentas[Código],0), 3)</f>
+        <v>6</v>
+      </c>
+      <c r="P13" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N13,TblCatalogoCuentas[Código],0), 5)</f>
+        <v>213002 - DOCUMENTOS POR PAGAR</v>
+      </c>
+      <c r="Q13" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N13,TblCatalogoCuentas[Código],0), 6)</f>
+        <v>Acreedora</v>
+      </c>
+      <c r="R13">
+        <f>SUMIFS(TblLibroDiario[Debe],TblLibroDiario[Cuenta],"="&amp;$P13,TblLibroDiario[Fecha],"&gt;="&amp;Y$3,TblLibroDiario[Fecha],"&lt;="&amp;Y$4)</f>
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <f>SUMIFS(TblLibroDiario[Haber],TblLibroDiario[Cuenta],"="&amp;$P13,TblLibroDiario[Fecha],"&gt;="&amp;Y$3,TblLibroDiario[Fecha],"&lt;="&amp;Y$4)</f>
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>6</v>
+      </c>
+      <c r="X13" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>112001</v>
+      </c>
+      <c r="B14">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A14,TblCatalogoCuentas[Código],0), 3)</f>
+        <v>6</v>
+      </c>
+      <c r="C14" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A14,TblCatalogoCuentas[Código],0), 5)</f>
+        <v xml:space="preserve">112001 - PRÉSTAMOS Y ANTICIPOS A EMPLEADOS </v>
+      </c>
+      <c r="D14" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A14,TblCatalogoCuentas[Código],0), 6)</f>
+        <v>Deudora</v>
+      </c>
+      <c r="E14">
+        <f>SUMIFS(TblLibroDiario[Debe],TblLibroDiario[Cuenta],"="&amp;$C14,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f>SUMIFS(TblLibroDiario[Haber],TblLibroDiario[Cuenta],"="&amp;$C14,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L14" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>213003</v>
+      </c>
+      <c r="O14">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N14,TblCatalogoCuentas[Código],0), 3)</f>
+        <v>6</v>
+      </c>
+      <c r="P14" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N14,TblCatalogoCuentas[Código],0), 5)</f>
+        <v xml:space="preserve">213003 - INTERESES POR PAGAR </v>
+      </c>
+      <c r="Q14" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N14,TblCatalogoCuentas[Código],0), 6)</f>
+        <v>Acreedora</v>
+      </c>
+      <c r="R14">
+        <f>SUMIFS(TblLibroDiario[Debe],TblLibroDiario[Cuenta],"="&amp;$P14,TblLibroDiario[Fecha],"&gt;="&amp;Y$3,TblLibroDiario[Fecha],"&lt;="&amp;Y$4)</f>
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <f>SUMIFS(TblLibroDiario[Haber],TblLibroDiario[Cuenta],"="&amp;$P14,TblLibroDiario[Fecha],"&gt;="&amp;Y$3,TblLibroDiario[Fecha],"&lt;="&amp;Y$4)</f>
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>60</v>
+      </c>
+      <c r="X14" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>112002</v>
+      </c>
+      <c r="B15">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A15,TblCatalogoCuentas[Código],0), 3)</f>
+        <v>6</v>
+      </c>
+      <c r="C15" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A15,TblCatalogoCuentas[Código],0), 5)</f>
+        <v xml:space="preserve">112002 - DOCUMENTOS POR COBRAR </v>
+      </c>
+      <c r="D15" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A15,TblCatalogoCuentas[Código],0), 6)</f>
+        <v>Deudora</v>
+      </c>
+      <c r="E15">
+        <f>SUMIFS(TblLibroDiario[Debe],TblLibroDiario[Cuenta],"="&amp;$C15,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <f>SUMIFS(TblLibroDiario[Haber],TblLibroDiario[Cuenta],"="&amp;$C15,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>214</v>
+      </c>
+      <c r="O15">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N15,TblCatalogoCuentas[Código],0), 3)</f>
+        <v>3</v>
+      </c>
+      <c r="P15" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N15,TblCatalogoCuentas[Código],0), 5)</f>
+        <v>214 - RETENCIONES LEGALES Y OTROS ACREEDORES POR PAGAR</v>
+      </c>
+      <c r="Q15" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N15,TblCatalogoCuentas[Código],0), 6)</f>
+        <v>Acreedora</v>
+      </c>
+      <c r="R15">
+        <f>SUMIFS(TblLibroDiario[Debe],TblLibroDiario[Cuenta],"="&amp;$P15,TblLibroDiario[Fecha],"&gt;="&amp;Y$3,TblLibroDiario[Fecha],"&lt;="&amp;Y$4)</f>
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <f>SUMIFS(TblLibroDiario[Haber],TblLibroDiario[Cuenta],"="&amp;$P15,TblLibroDiario[Fecha],"&gt;="&amp;Y$3,TblLibroDiario[Fecha],"&lt;="&amp;Y$4)</f>
+        <v>0</v>
+      </c>
+      <c r="V15" t="s">
+        <v>61</v>
+      </c>
+      <c r="X15" s="16"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>112003</v>
+      </c>
+      <c r="B16">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A16,TblCatalogoCuentas[Código],0), 3)</f>
+        <v>6</v>
+      </c>
+      <c r="C16" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A16,TblCatalogoCuentas[Código],0), 5)</f>
+        <v xml:space="preserve">112003 - IVA POR RECLAMAR </v>
+      </c>
+      <c r="D16" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A16,TblCatalogoCuentas[Código],0), 6)</f>
+        <v>Deudora</v>
+      </c>
+      <c r="E16">
+        <f>SUMIFS(TblLibroDiario[Debe],TblLibroDiario[Cuenta],"="&amp;$C16,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <f>SUMIFS(TblLibroDiario[Haber],TblLibroDiario[Cuenta],"="&amp;$C16,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>214001</v>
+      </c>
+      <c r="O16">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N16,TblCatalogoCuentas[Código],0), 3)</f>
+        <v>6</v>
+      </c>
+      <c r="P16" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N16,TblCatalogoCuentas[Código],0), 5)</f>
+        <v>214001 - ISSS- SALUD</v>
+      </c>
+      <c r="Q16" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N16,TblCatalogoCuentas[Código],0), 6)</f>
+        <v>Acreedora</v>
+      </c>
+      <c r="R16">
+        <f>SUMIFS(TblLibroDiario[Debe],TblLibroDiario[Cuenta],"="&amp;$P16,TblLibroDiario[Fecha],"&gt;="&amp;Y$3,TblLibroDiario[Fecha],"&lt;="&amp;Y$4)</f>
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <f>SUMIFS(TblLibroDiario[Haber],TblLibroDiario[Cuenta],"="&amp;$P16,TblLibroDiario[Fecha],"&gt;="&amp;Y$3,TblLibroDiario[Fecha],"&lt;="&amp;Y$4)</f>
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>62</v>
+      </c>
+      <c r="X16" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>112004</v>
+      </c>
+      <c r="B17">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A17,TblCatalogoCuentas[Código],0), 3)</f>
+        <v>6</v>
+      </c>
+      <c r="C17" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A17,TblCatalogoCuentas[Código],0), 5)</f>
+        <v xml:space="preserve">112004 - ESTIMACIÓN PARA CUENTAS INCOBRABLES </v>
+      </c>
+      <c r="D17" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A17,TblCatalogoCuentas[Código],0), 6)</f>
+        <v>Deudora</v>
+      </c>
+      <c r="E17">
+        <f>SUMIFS(TblLibroDiario[Debe],TblLibroDiario[Cuenta],"="&amp;$C17,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <f>SUMIFS(TblLibroDiario[Haber],TblLibroDiario[Cuenta],"="&amp;$C17,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>214002</v>
+      </c>
+      <c r="O17">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N17,TblCatalogoCuentas[Código],0), 3)</f>
+        <v>6</v>
+      </c>
+      <c r="P17" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N17,TblCatalogoCuentas[Código],0), 5)</f>
+        <v>214002 - UNIDAD DE PENSIONES ISSS</v>
+      </c>
+      <c r="Q17" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N17,TblCatalogoCuentas[Código],0), 6)</f>
+        <v>Acreedora</v>
+      </c>
+      <c r="R17">
+        <f>SUMIFS(TblLibroDiario[Debe],TblLibroDiario[Cuenta],"="&amp;$P17,TblLibroDiario[Fecha],"&gt;="&amp;Y$3,TblLibroDiario[Fecha],"&lt;="&amp;Y$4)</f>
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <f>SUMIFS(TblLibroDiario[Haber],TblLibroDiario[Cuenta],"="&amp;$P17,TblLibroDiario[Fecha],"&gt;="&amp;Y$3,TblLibroDiario[Fecha],"&lt;="&amp;Y$4)</f>
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>63</v>
+      </c>
+      <c r="X17" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>113</v>
+      </c>
+      <c r="B18">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A18,TblCatalogoCuentas[Código],0), 3)</f>
+        <v>3</v>
+      </c>
+      <c r="C18" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A18,TblCatalogoCuentas[Código],0), 5)</f>
+        <v xml:space="preserve">113 - INVENTARIOS </v>
+      </c>
+      <c r="D18" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A18,TblCatalogoCuentas[Código],0), 6)</f>
+        <v>Deudora</v>
+      </c>
+      <c r="E18">
+        <f>SUMIFS(TblLibroDiario[Debe],TblLibroDiario[Cuenta],"="&amp;$C18,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <f>SUMIFS(TblLibroDiario[Haber],TblLibroDiario[Cuenta],"="&amp;$C18,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="N18">
+        <v>214003</v>
+      </c>
+      <c r="O18">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N18,TblCatalogoCuentas[Código],0), 3)</f>
+        <v>6</v>
+      </c>
+      <c r="P18" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N18,TblCatalogoCuentas[Código],0), 5)</f>
+        <v>214003 - IMPUESTO SOBRE LA RENTA EMPLEADOS PERMANENTES</v>
+      </c>
+      <c r="Q18" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N18,TblCatalogoCuentas[Código],0), 6)</f>
+        <v>Acreedora</v>
+      </c>
+      <c r="R18">
+        <f>SUMIFS(TblLibroDiario[Debe],TblLibroDiario[Cuenta],"="&amp;$P18,TblLibroDiario[Fecha],"&gt;="&amp;Y$3,TblLibroDiario[Fecha],"&lt;="&amp;Y$4)</f>
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <f>SUMIFS(TblLibroDiario[Haber],TblLibroDiario[Cuenta],"="&amp;$P18,TblLibroDiario[Fecha],"&gt;="&amp;Y$3,TblLibroDiario[Fecha],"&lt;="&amp;Y$4)</f>
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>64</v>
+      </c>
+      <c r="X18" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>113001</v>
+      </c>
+      <c r="B19">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A19,TblCatalogoCuentas[Código],0), 3)</f>
+        <v>6</v>
+      </c>
+      <c r="C19" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A19,TblCatalogoCuentas[Código],0), 5)</f>
+        <v xml:space="preserve">113001 - INVENTARIO MORTADELA </v>
+      </c>
+      <c r="D19" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A19,TblCatalogoCuentas[Código],0), 6)</f>
+        <v>Deudora</v>
+      </c>
+      <c r="E19">
+        <f>SUMIFS(TblLibroDiario[Debe],TblLibroDiario[Cuenta],"="&amp;$C19,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <f>SUMIFS(TblLibroDiario[Haber],TblLibroDiario[Cuenta],"="&amp;$C19,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>214004</v>
+      </c>
+      <c r="O19">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N19,TblCatalogoCuentas[Código],0), 3)</f>
+        <v>6</v>
+      </c>
+      <c r="P19" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N19,TblCatalogoCuentas[Código],0), 5)</f>
+        <v xml:space="preserve">214004 - IMPUESTO SOBRE LA RENTA SERVICIOS </v>
+      </c>
+      <c r="Q19" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N19,TblCatalogoCuentas[Código],0), 6)</f>
+        <v>Acreedora</v>
+      </c>
+      <c r="R19">
+        <f>SUMIFS(TblLibroDiario[Debe],TblLibroDiario[Cuenta],"="&amp;$P19,TblLibroDiario[Fecha],"&gt;="&amp;Y$3,TblLibroDiario[Fecha],"&lt;="&amp;Y$4)</f>
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <f>SUMIFS(TblLibroDiario[Haber],TblLibroDiario[Cuenta],"="&amp;$P19,TblLibroDiario[Fecha],"&gt;="&amp;Y$3,TblLibroDiario[Fecha],"&lt;="&amp;Y$4)</f>
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>65</v>
+      </c>
+      <c r="X19" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>113002</v>
+      </c>
+      <c r="B20">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A20,TblCatalogoCuentas[Código],0), 3)</f>
+        <v>6</v>
+      </c>
+      <c r="C20" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A20,TblCatalogoCuentas[Código],0), 5)</f>
+        <v xml:space="preserve">113002 - INVENTARIO JAMÓN </v>
+      </c>
+      <c r="D20" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A20,TblCatalogoCuentas[Código],0), 6)</f>
+        <v>Deudora</v>
+      </c>
+      <c r="E20">
+        <f>SUMIFS(TblLibroDiario[Debe],TblLibroDiario[Cuenta],"="&amp;$C20,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <f>SUMIFS(TblLibroDiario[Haber],TblLibroDiario[Cuenta],"="&amp;$C20,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>214005</v>
+      </c>
+      <c r="O20">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N20,TblCatalogoCuentas[Código],0), 3)</f>
+        <v>6</v>
+      </c>
+      <c r="P20" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N20,TblCatalogoCuentas[Código],0), 5)</f>
+        <v xml:space="preserve">214005 - AFP CONFÍA </v>
+      </c>
+      <c r="Q20" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N20,TblCatalogoCuentas[Código],0), 6)</f>
+        <v>Acreedora</v>
+      </c>
+      <c r="R20">
+        <f>SUMIFS(TblLibroDiario[Debe],TblLibroDiario[Cuenta],"="&amp;$P20,TblLibroDiario[Fecha],"&gt;="&amp;Y$3,TblLibroDiario[Fecha],"&lt;="&amp;Y$4)</f>
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <f>SUMIFS(TblLibroDiario[Haber],TblLibroDiario[Cuenta],"="&amp;$P20,TblLibroDiario[Fecha],"&gt;="&amp;Y$3,TblLibroDiario[Fecha],"&lt;="&amp;Y$4)</f>
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>66</v>
+      </c>
+      <c r="X20" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>113003</v>
+      </c>
+      <c r="B21">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A21,TblCatalogoCuentas[Código],0), 3)</f>
+        <v>6</v>
+      </c>
+      <c r="C21" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A21,TblCatalogoCuentas[Código],0), 5)</f>
+        <v>113003 - INVENTARIO CHORIZOS</v>
+      </c>
+      <c r="D21" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A21,TblCatalogoCuentas[Código],0), 6)</f>
+        <v>Deudora</v>
+      </c>
+      <c r="E21">
+        <f>SUMIFS(TblLibroDiario[Debe],TblLibroDiario[Cuenta],"="&amp;$C21,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <f>SUMIFS(TblLibroDiario[Haber],TblLibroDiario[Cuenta],"="&amp;$C21,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
+        <v>22</v>
+      </c>
+      <c r="L21" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>214006</v>
+      </c>
+      <c r="O21">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N21,TblCatalogoCuentas[Código],0), 3)</f>
+        <v>6</v>
+      </c>
+      <c r="P21" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N21,TblCatalogoCuentas[Código],0), 5)</f>
+        <v>214006 - AFP CRECER</v>
+      </c>
+      <c r="Q21" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N21,TblCatalogoCuentas[Código],0), 6)</f>
+        <v>Acreedora</v>
+      </c>
+      <c r="R21">
+        <f>SUMIFS(TblLibroDiario[Debe],TblLibroDiario[Cuenta],"="&amp;$P21,TblLibroDiario[Fecha],"&gt;="&amp;Y$3,TblLibroDiario[Fecha],"&lt;="&amp;Y$4)</f>
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <f>SUMIFS(TblLibroDiario[Haber],TblLibroDiario[Cuenta],"="&amp;$P21,TblLibroDiario[Fecha],"&gt;="&amp;Y$3,TblLibroDiario[Fecha],"&lt;="&amp;Y$4)</f>
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>67</v>
+      </c>
+      <c r="X21" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>113004</v>
+      </c>
+      <c r="B22">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A22,TblCatalogoCuentas[Código],0), 3)</f>
+        <v>6</v>
+      </c>
+      <c r="C22" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A22,TblCatalogoCuentas[Código],0), 5)</f>
+        <v xml:space="preserve">113004 - INVENTARIO SALAMI </v>
+      </c>
+      <c r="D22" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A22,TblCatalogoCuentas[Código],0), 6)</f>
+        <v>Deudora</v>
+      </c>
+      <c r="E22">
+        <f>SUMIFS(TblLibroDiario[Debe],TblLibroDiario[Cuenta],"="&amp;$C22,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <f>SUMIFS(TblLibroDiario[Haber],TblLibroDiario[Cuenta],"="&amp;$C22,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="J22" t="s">
+        <v>23</v>
+      </c>
+      <c r="L22" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>215</v>
+      </c>
+      <c r="O22">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N22,TblCatalogoCuentas[Código],0), 3)</f>
+        <v>3</v>
+      </c>
+      <c r="P22" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N22,TblCatalogoCuentas[Código],0), 5)</f>
+        <v>215 - OBLIGACIONES POR BENEFICIOS A EMPLEADOS</v>
+      </c>
+      <c r="Q22" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N22,TblCatalogoCuentas[Código],0), 6)</f>
+        <v>Acreedora</v>
+      </c>
+      <c r="R22">
+        <f>SUMIFS(TblLibroDiario[Debe],TblLibroDiario[Cuenta],"="&amp;$P22,TblLibroDiario[Fecha],"&gt;="&amp;Y$3,TblLibroDiario[Fecha],"&lt;="&amp;Y$4)</f>
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <f>SUMIFS(TblLibroDiario[Haber],TblLibroDiario[Cuenta],"="&amp;$P22,TblLibroDiario[Fecha],"&gt;="&amp;Y$3,TblLibroDiario[Fecha],"&lt;="&amp;Y$4)</f>
+        <v>0</v>
+      </c>
+      <c r="V22" t="s">
+        <v>68</v>
+      </c>
+      <c r="X22" s="16"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>113005</v>
+      </c>
+      <c r="B23">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A23,TblCatalogoCuentas[Código],0), 3)</f>
+        <v>6</v>
+      </c>
+      <c r="C23" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A23,TblCatalogoCuentas[Código],0), 5)</f>
+        <v>113005 - INVENTARIO SALCHICHAS</v>
+      </c>
+      <c r="D23" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A23,TblCatalogoCuentas[Código],0), 6)</f>
+        <v>Deudora</v>
+      </c>
+      <c r="E23">
+        <f>SUMIFS(TblLibroDiario[Debe],TblLibroDiario[Cuenta],"="&amp;$C23,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f>SUMIFS(TblLibroDiario[Haber],TblLibroDiario[Cuenta],"="&amp;$C23,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="J23" t="s">
+        <v>24</v>
+      </c>
+      <c r="L23" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>215001</v>
+      </c>
+      <c r="O23">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N23,TblCatalogoCuentas[Código],0), 3)</f>
+        <v>6</v>
+      </c>
+      <c r="P23" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N23,TblCatalogoCuentas[Código],0), 5)</f>
+        <v xml:space="preserve">215001 - SUELDOS </v>
+      </c>
+      <c r="Q23" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N23,TblCatalogoCuentas[Código],0), 6)</f>
+        <v>Acreedora</v>
+      </c>
+      <c r="R23">
+        <f>SUMIFS(TblLibroDiario[Debe],TblLibroDiario[Cuenta],"="&amp;$P23,TblLibroDiario[Fecha],"&gt;="&amp;Y$3,TblLibroDiario[Fecha],"&lt;="&amp;Y$4)</f>
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <f>SUMIFS(TblLibroDiario[Haber],TblLibroDiario[Cuenta],"="&amp;$P23,TblLibroDiario[Fecha],"&gt;="&amp;Y$3,TblLibroDiario[Fecha],"&lt;="&amp;Y$4)</f>
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>69</v>
+      </c>
+      <c r="X23" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>113006</v>
+      </c>
+      <c r="B24">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A24,TblCatalogoCuentas[Código],0), 3)</f>
+        <v>6</v>
+      </c>
+      <c r="C24" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A24,TblCatalogoCuentas[Código],0), 5)</f>
+        <v xml:space="preserve">113006 - INVENTARIO CARNE EN CANAL </v>
+      </c>
+      <c r="D24" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A24,TblCatalogoCuentas[Código],0), 6)</f>
+        <v>Deudora</v>
+      </c>
+      <c r="E24">
+        <f>SUMIFS(TblLibroDiario[Debe],TblLibroDiario[Cuenta],"="&amp;$C24,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <f>SUMIFS(TblLibroDiario[Haber],TblLibroDiario[Cuenta],"="&amp;$C24,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="J24" t="s">
+        <v>25</v>
+      </c>
+      <c r="L24" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>215002</v>
+      </c>
+      <c r="O24">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N24,TblCatalogoCuentas[Código],0), 3)</f>
+        <v>6</v>
+      </c>
+      <c r="P24" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N24,TblCatalogoCuentas[Código],0), 5)</f>
+        <v xml:space="preserve">215002 - VACACIONES </v>
+      </c>
+      <c r="Q24" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N24,TblCatalogoCuentas[Código],0), 6)</f>
+        <v>Acreedora</v>
+      </c>
+      <c r="R24">
+        <f>SUMIFS(TblLibroDiario[Debe],TblLibroDiario[Cuenta],"="&amp;$P24,TblLibroDiario[Fecha],"&gt;="&amp;Y$3,TblLibroDiario[Fecha],"&lt;="&amp;Y$4)</f>
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <f>SUMIFS(TblLibroDiario[Haber],TblLibroDiario[Cuenta],"="&amp;$P24,TblLibroDiario[Fecha],"&gt;="&amp;Y$3,TblLibroDiario[Fecha],"&lt;="&amp;Y$4)</f>
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>70</v>
+      </c>
+      <c r="X24" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>113007</v>
+      </c>
+      <c r="B25">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A25,TblCatalogoCuentas[Código],0), 3)</f>
+        <v>6</v>
+      </c>
+      <c r="C25" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A25,TblCatalogoCuentas[Código],0), 5)</f>
+        <v>113007 - INVENTARIO CARNE DESPOSTADA</v>
+      </c>
+      <c r="D25" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A25,TblCatalogoCuentas[Código],0), 6)</f>
+        <v>Deudora</v>
+      </c>
+      <c r="E25">
+        <f>SUMIFS(TblLibroDiario[Debe],TblLibroDiario[Cuenta],"="&amp;$C25,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <f>SUMIFS(TblLibroDiario[Haber],TblLibroDiario[Cuenta],"="&amp;$C25,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="J25" t="s">
+        <v>26</v>
+      </c>
+      <c r="L25" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>215003</v>
+      </c>
+      <c r="O25">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N25,TblCatalogoCuentas[Código],0), 3)</f>
+        <v>6</v>
+      </c>
+      <c r="P25" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N25,TblCatalogoCuentas[Código],0), 5)</f>
+        <v>215003 - AGUINALDOS</v>
+      </c>
+      <c r="Q25" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N25,TblCatalogoCuentas[Código],0), 6)</f>
+        <v>Acreedora</v>
+      </c>
+      <c r="R25">
+        <f>SUMIFS(TblLibroDiario[Debe],TblLibroDiario[Cuenta],"="&amp;$P25,TblLibroDiario[Fecha],"&gt;="&amp;Y$3,TblLibroDiario[Fecha],"&lt;="&amp;Y$4)</f>
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <f>SUMIFS(TblLibroDiario[Haber],TblLibroDiario[Cuenta],"="&amp;$P25,TblLibroDiario[Fecha],"&gt;="&amp;Y$3,TblLibroDiario[Fecha],"&lt;="&amp;Y$4)</f>
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>71</v>
+      </c>
+      <c r="X25" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>114</v>
+      </c>
+      <c r="B26">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A26,TblCatalogoCuentas[Código],0), 3)</f>
+        <v>3</v>
+      </c>
+      <c r="C26" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A26,TblCatalogoCuentas[Código],0), 5)</f>
+        <v xml:space="preserve">114 - PAGOS ANTICIPADOS </v>
+      </c>
+      <c r="D26" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A26,TblCatalogoCuentas[Código],0), 6)</f>
+        <v>Deudora</v>
+      </c>
+      <c r="E26">
+        <f>SUMIFS(TblLibroDiario[Debe],TblLibroDiario[Cuenta],"="&amp;$C26,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f>SUMIFS(TblLibroDiario[Haber],TblLibroDiario[Cuenta],"="&amp;$C26,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="N26">
+        <v>215004</v>
+      </c>
+      <c r="O26">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N26,TblCatalogoCuentas[Código],0), 3)</f>
+        <v>6</v>
+      </c>
+      <c r="P26" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N26,TblCatalogoCuentas[Código],0), 5)</f>
+        <v>215004 - VIÁTICOS</v>
+      </c>
+      <c r="Q26" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N26,TblCatalogoCuentas[Código],0), 6)</f>
+        <v>Acreedora</v>
+      </c>
+      <c r="R26">
+        <f>SUMIFS(TblLibroDiario[Debe],TblLibroDiario[Cuenta],"="&amp;$P26,TblLibroDiario[Fecha],"&gt;="&amp;Y$3,TblLibroDiario[Fecha],"&lt;="&amp;Y$4)</f>
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <f>SUMIFS(TblLibroDiario[Haber],TblLibroDiario[Cuenta],"="&amp;$P26,TblLibroDiario[Fecha],"&gt;="&amp;Y$3,TblLibroDiario[Fecha],"&lt;="&amp;Y$4)</f>
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>72</v>
+      </c>
+      <c r="X26" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>114001</v>
+      </c>
+      <c r="B27">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A27,TblCatalogoCuentas[Código],0), 3)</f>
+        <v>6</v>
+      </c>
+      <c r="C27" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A27,TblCatalogoCuentas[Código],0), 5)</f>
+        <v xml:space="preserve">114001 - PAPELERÍA Y ÚTILES </v>
+      </c>
+      <c r="D27" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A27,TblCatalogoCuentas[Código],0), 6)</f>
+        <v>Deudora</v>
+      </c>
+      <c r="E27">
+        <f>SUMIFS(TblLibroDiario[Debe],TblLibroDiario[Cuenta],"="&amp;$C27,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f>SUMIFS(TblLibroDiario[Haber],TblLibroDiario[Cuenta],"="&amp;$C27,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="J27" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>215005</v>
+      </c>
+      <c r="O27">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N27,TblCatalogoCuentas[Código],0), 3)</f>
+        <v>6</v>
+      </c>
+      <c r="P27" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N27,TblCatalogoCuentas[Código],0), 5)</f>
+        <v xml:space="preserve">215005 - INDEMNIZACIONES </v>
+      </c>
+      <c r="Q27" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N27,TblCatalogoCuentas[Código],0), 6)</f>
+        <v>Acreedora</v>
+      </c>
+      <c r="R27">
+        <f>SUMIFS(TblLibroDiario[Debe],TblLibroDiario[Cuenta],"="&amp;$P27,TblLibroDiario[Fecha],"&gt;="&amp;Y$3,TblLibroDiario[Fecha],"&lt;="&amp;Y$4)</f>
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <f>SUMIFS(TblLibroDiario[Haber],TblLibroDiario[Cuenta],"="&amp;$P27,TblLibroDiario[Fecha],"&gt;="&amp;Y$3,TblLibroDiario[Fecha],"&lt;="&amp;Y$4)</f>
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>73</v>
+      </c>
+      <c r="X27" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>114002</v>
+      </c>
+      <c r="B28">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A28,TblCatalogoCuentas[Código],0), 3)</f>
+        <v>6</v>
+      </c>
+      <c r="C28" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A28,TblCatalogoCuentas[Código],0), 5)</f>
+        <v>114002 - SEGUROS PAGADOS POR ANTICIPADO</v>
+      </c>
+      <c r="D28" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A28,TblCatalogoCuentas[Código],0), 6)</f>
+        <v>Deudora</v>
+      </c>
+      <c r="E28">
+        <f>SUMIFS(TblLibroDiario[Debe],TblLibroDiario[Cuenta],"="&amp;$C28,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <f>SUMIFS(TblLibroDiario[Haber],TblLibroDiario[Cuenta],"="&amp;$C28,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="J28" t="s">
+        <v>29</v>
+      </c>
+      <c r="L28" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>215006</v>
+      </c>
+      <c r="O28">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N28,TblCatalogoCuentas[Código],0), 3)</f>
+        <v>6</v>
+      </c>
+      <c r="P28" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N28,TblCatalogoCuentas[Código],0), 5)</f>
+        <v xml:space="preserve">215006 - COMISIONES POR VENTAS </v>
+      </c>
+      <c r="Q28" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N28,TblCatalogoCuentas[Código],0), 6)</f>
+        <v>Acreedora</v>
+      </c>
+      <c r="R28">
+        <f>SUMIFS(TblLibroDiario[Debe],TblLibroDiario[Cuenta],"="&amp;$P28,TblLibroDiario[Fecha],"&gt;="&amp;Y$3,TblLibroDiario[Fecha],"&lt;="&amp;Y$4)</f>
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <f>SUMIFS(TblLibroDiario[Haber],TblLibroDiario[Cuenta],"="&amp;$P28,TblLibroDiario[Fecha],"&gt;="&amp;Y$3,TblLibroDiario[Fecha],"&lt;="&amp;Y$4)</f>
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>74</v>
+      </c>
+      <c r="X28" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>115</v>
+      </c>
+      <c r="B29">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A29,TblCatalogoCuentas[Código],0), 3)</f>
+        <v>3</v>
+      </c>
+      <c r="C29" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A29,TblCatalogoCuentas[Código],0), 5)</f>
+        <v xml:space="preserve">115 - IVA CRÉDITO FISCAL </v>
+      </c>
+      <c r="D29" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A29,TblCatalogoCuentas[Código],0), 6)</f>
+        <v>Deudora</v>
+      </c>
+      <c r="E29">
+        <f>SUMIFS(TblLibroDiario[Debe],TblLibroDiario[Cuenta],"="&amp;$C29,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <f>SUMIFS(TblLibroDiario[Haber],TblLibroDiario[Cuenta],"="&amp;$C29,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="L29" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>215007</v>
+      </c>
+      <c r="O29">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N29,TblCatalogoCuentas[Código],0), 3)</f>
+        <v>6</v>
+      </c>
+      <c r="P29" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N29,TblCatalogoCuentas[Código],0), 5)</f>
+        <v xml:space="preserve">215007 - BONIFICACIONES </v>
+      </c>
+      <c r="Q29" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N29,TblCatalogoCuentas[Código],0), 6)</f>
+        <v>Acreedora</v>
+      </c>
+      <c r="R29">
+        <f>SUMIFS(TblLibroDiario[Debe],TblLibroDiario[Cuenta],"="&amp;$P29,TblLibroDiario[Fecha],"&gt;="&amp;Y$3,TblLibroDiario[Fecha],"&lt;="&amp;Y$4)</f>
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <f>SUMIFS(TblLibroDiario[Haber],TblLibroDiario[Cuenta],"="&amp;$P29,TblLibroDiario[Fecha],"&gt;="&amp;Y$3,TblLibroDiario[Fecha],"&lt;="&amp;Y$4)</f>
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>75</v>
+      </c>
+      <c r="X29" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="H30" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="I30" s="19"/>
+      <c r="L30" s="16">
+        <f>SUM(L9:L29)</f>
+        <v>5</v>
+      </c>
+      <c r="N30">
+        <v>216</v>
+      </c>
+      <c r="O30">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N30,TblCatalogoCuentas[Código],0), 3)</f>
+        <v>3</v>
+      </c>
+      <c r="P30" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N30,TblCatalogoCuentas[Código],0), 5)</f>
+        <v xml:space="preserve">216 - IMPUESTOS POR PAGAR </v>
+      </c>
+      <c r="Q30" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N30,TblCatalogoCuentas[Código],0), 6)</f>
+        <v>Acreedora</v>
+      </c>
+      <c r="R30">
+        <f>SUMIFS(TblLibroDiario[Debe],TblLibroDiario[Cuenta],"="&amp;$P30,TblLibroDiario[Fecha],"&gt;="&amp;Y$3,TblLibroDiario[Fecha],"&lt;="&amp;Y$4)</f>
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <f>SUMIFS(TblLibroDiario[Haber],TblLibroDiario[Cuenta],"="&amp;$P30,TblLibroDiario[Fecha],"&gt;="&amp;Y$3,TblLibroDiario[Fecha],"&lt;="&amp;Y$4)</f>
+        <v>0</v>
+      </c>
+      <c r="V30" t="s">
+        <v>76</v>
+      </c>
+      <c r="X30" s="16"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="I31" s="19"/>
+      <c r="N31">
+        <v>216001</v>
+      </c>
+      <c r="O31">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N31,TblCatalogoCuentas[Código],0), 3)</f>
+        <v>6</v>
+      </c>
+      <c r="P31" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N31,TblCatalogoCuentas[Código],0), 5)</f>
+        <v>216001 - IVA POR PAGAR</v>
+      </c>
+      <c r="Q31" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N31,TblCatalogoCuentas[Código],0), 6)</f>
+        <v>Acreedora</v>
+      </c>
+      <c r="R31">
+        <f>SUMIFS(TblLibroDiario[Debe],TblLibroDiario[Cuenta],"="&amp;$P31,TblLibroDiario[Fecha],"&gt;="&amp;Y$3,TblLibroDiario[Fecha],"&lt;="&amp;Y$4)</f>
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <f>SUMIFS(TblLibroDiario[Haber],TblLibroDiario[Cuenta],"="&amp;$P31,TblLibroDiario[Fecha],"&gt;="&amp;Y$3,TblLibroDiario[Fecha],"&lt;="&amp;Y$4)</f>
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>77</v>
+      </c>
+      <c r="X31" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>12</v>
+      </c>
+      <c r="B32">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A32,TblCatalogoCuentas[Código],0), 3)</f>
+        <v>2</v>
+      </c>
+      <c r="C32" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A32,TblCatalogoCuentas[Código],0), 5)</f>
+        <v xml:space="preserve">12 - ACTIVO NO CORRIENTE </v>
+      </c>
+      <c r="D32" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A32,TblCatalogoCuentas[Código],0), 6)</f>
+        <v>Deudora</v>
+      </c>
+      <c r="E32">
+        <f>SUMIFS(TblLibroDiario[Debe],TblLibroDiario[Cuenta],"="&amp;$C32,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <f>SUMIFS(TblLibroDiario[Haber],TblLibroDiario[Cuenta],"="&amp;$C32,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N32">
+        <v>217</v>
+      </c>
+      <c r="O32">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N32,TblCatalogoCuentas[Código],0), 3)</f>
+        <v>3</v>
+      </c>
+      <c r="P32" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N32,TblCatalogoCuentas[Código],0), 5)</f>
+        <v xml:space="preserve">217 - IVA DÉBITO FISCAL </v>
+      </c>
+      <c r="Q32" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N32,TblCatalogoCuentas[Código],0), 6)</f>
+        <v>Acreedora</v>
+      </c>
+      <c r="R32">
+        <f>SUMIFS(TblLibroDiario[Debe],TblLibroDiario[Cuenta],"="&amp;$P32,TblLibroDiario[Fecha],"&gt;="&amp;Y$3,TblLibroDiario[Fecha],"&lt;="&amp;Y$4)</f>
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <f>SUMIFS(TblLibroDiario[Haber],TblLibroDiario[Cuenta],"="&amp;$P32,TblLibroDiario[Fecha],"&gt;="&amp;Y$3,TblLibroDiario[Fecha],"&lt;="&amp;Y$4)</f>
+        <v>0</v>
+      </c>
+      <c r="V32" t="s">
+        <v>78</v>
+      </c>
+      <c r="X32" s="16"/>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>121</v>
+      </c>
+      <c r="B33">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A33,TblCatalogoCuentas[Código],0), 3)</f>
+        <v>3</v>
+      </c>
+      <c r="C33" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A33,TblCatalogoCuentas[Código],0), 5)</f>
+        <v xml:space="preserve">121 - PROPIEDAD, PLANTA Y EQUIPO </v>
+      </c>
+      <c r="D33" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A33,TblCatalogoCuentas[Código],0), 6)</f>
+        <v>Deudora</v>
+      </c>
+      <c r="E33">
+        <f>SUMIFS(TblLibroDiario[Debe],TblLibroDiario[Cuenta],"="&amp;$C33,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <f>SUMIFS(TblLibroDiario[Haber],TblLibroDiario[Cuenta],"="&amp;$C33,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="N33">
+        <v>217003</v>
+      </c>
+      <c r="O33">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N33,TblCatalogoCuentas[Código],0), 3)</f>
+        <v>6</v>
+      </c>
+      <c r="P33" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N33,TblCatalogoCuentas[Código],0), 5)</f>
+        <v>217003 - CONSUMIDORES FINALES</v>
+      </c>
+      <c r="Q33" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N33,TblCatalogoCuentas[Código],0), 6)</f>
+        <v>Acreedora</v>
+      </c>
+      <c r="R33">
+        <f>SUMIFS(TblLibroDiario[Debe],TblLibroDiario[Cuenta],"="&amp;$P33,TblLibroDiario[Fecha],"&gt;="&amp;Y$3,TblLibroDiario[Fecha],"&lt;="&amp;Y$4)</f>
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <f>SUMIFS(TblLibroDiario[Haber],TblLibroDiario[Cuenta],"="&amp;$P33,TblLibroDiario[Fecha],"&gt;="&amp;Y$3,TblLibroDiario[Fecha],"&lt;="&amp;Y$4)</f>
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>79</v>
+      </c>
+      <c r="X33" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>121001</v>
+      </c>
+      <c r="B34">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A34,TblCatalogoCuentas[Código],0), 3)</f>
+        <v>6</v>
+      </c>
+      <c r="C34" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A34,TblCatalogoCuentas[Código],0), 5)</f>
+        <v>121001 - BIENES INMUEBLES</v>
+      </c>
+      <c r="D34" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A34,TblCatalogoCuentas[Código],0), 6)</f>
+        <v>Deudora</v>
+      </c>
+      <c r="E34">
+        <f>SUMIFS(TblLibroDiario[Debe],TblLibroDiario[Cuenta],"="&amp;$C34,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <f>SUMIFS(TblLibroDiario[Haber],TblLibroDiario[Cuenta],"="&amp;$C34,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="J34" t="s">
+        <v>33</v>
+      </c>
+      <c r="N34">
+        <v>218</v>
+      </c>
+      <c r="O34">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N34,TblCatalogoCuentas[Código],0), 3)</f>
+        <v>3</v>
+      </c>
+      <c r="P34" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N34,TblCatalogoCuentas[Código],0), 5)</f>
+        <v>218 - ASUNTOS PENDIENTES</v>
+      </c>
+      <c r="Q34" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N34,TblCatalogoCuentas[Código],0), 6)</f>
+        <v>Acreedora</v>
+      </c>
+      <c r="R34">
+        <f>SUMIFS(TblLibroDiario[Debe],TblLibroDiario[Cuenta],"="&amp;$P34,TblLibroDiario[Fecha],"&gt;="&amp;Y$3,TblLibroDiario[Fecha],"&lt;="&amp;Y$4)</f>
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <f>SUMIFS(TblLibroDiario[Haber],TblLibroDiario[Cuenta],"="&amp;$P34,TblLibroDiario[Fecha],"&gt;="&amp;Y$3,TblLibroDiario[Fecha],"&lt;="&amp;Y$4)</f>
+        <v>0</v>
+      </c>
+      <c r="V34" t="s">
+        <v>80</v>
+      </c>
+      <c r="X34" s="16"/>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>121001001</v>
+      </c>
+      <c r="B35">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A35,TblCatalogoCuentas[Código],0), 3)</f>
+        <v>9</v>
+      </c>
+      <c r="C35" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A35,TblCatalogoCuentas[Código],0), 5)</f>
+        <v xml:space="preserve">121001001 - TERRENOS </v>
+      </c>
+      <c r="D35" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A35,TblCatalogoCuentas[Código],0), 6)</f>
+        <v>Deudora</v>
+      </c>
+      <c r="E35">
+        <f>SUMIFS(TblLibroDiario[Debe],TblLibroDiario[Cuenta],"="&amp;$C35,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <f>SUMIFS(TblLibroDiario[Haber],TblLibroDiario[Cuenta],"="&amp;$C35,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="K35" t="s">
+        <v>34</v>
+      </c>
+      <c r="L35" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>218001</v>
+      </c>
+      <c r="O35">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N35,TblCatalogoCuentas[Código],0), 3)</f>
+        <v>6</v>
+      </c>
+      <c r="P35" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N35,TblCatalogoCuentas[Código],0), 5)</f>
+        <v xml:space="preserve">218001 - SOBRANTES DE CAJA </v>
+      </c>
+      <c r="Q35" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N35,TblCatalogoCuentas[Código],0), 6)</f>
+        <v>Acreedora</v>
+      </c>
+      <c r="R35">
+        <f>SUMIFS(TblLibroDiario[Debe],TblLibroDiario[Cuenta],"="&amp;$P35,TblLibroDiario[Fecha],"&gt;="&amp;Y$3,TblLibroDiario[Fecha],"&lt;="&amp;Y$4)</f>
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <f>SUMIFS(TblLibroDiario[Haber],TblLibroDiario[Cuenta],"="&amp;$P35,TblLibroDiario[Fecha],"&gt;="&amp;Y$3,TblLibroDiario[Fecha],"&lt;="&amp;Y$4)</f>
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>81</v>
+      </c>
+      <c r="X35" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>121001002</v>
+      </c>
+      <c r="B36">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A36,TblCatalogoCuentas[Código],0), 3)</f>
+        <v>9</v>
+      </c>
+      <c r="C36" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A36,TblCatalogoCuentas[Código],0), 5)</f>
+        <v xml:space="preserve">121001002 - INSTALACIONES </v>
+      </c>
+      <c r="D36" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A36,TblCatalogoCuentas[Código],0), 6)</f>
+        <v>Deudora</v>
+      </c>
+      <c r="E36">
+        <f>SUMIFS(TblLibroDiario[Debe],TblLibroDiario[Cuenta],"="&amp;$C36,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <f>SUMIFS(TblLibroDiario[Haber],TblLibroDiario[Cuenta],"="&amp;$C36,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="K36" t="s">
+        <v>35</v>
+      </c>
+      <c r="L36" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>219</v>
+      </c>
+      <c r="O36">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N36,TblCatalogoCuentas[Código],0), 3)</f>
+        <v>3</v>
+      </c>
+      <c r="P36" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N36,TblCatalogoCuentas[Código],0), 5)</f>
+        <v xml:space="preserve">219 - ANTICIPOS DE CLIENTES </v>
+      </c>
+      <c r="Q36" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N36,TblCatalogoCuentas[Código],0), 6)</f>
+        <v>Acreedora</v>
+      </c>
+      <c r="R36">
+        <f>SUMIFS(TblLibroDiario[Debe],TblLibroDiario[Cuenta],"="&amp;$P36,TblLibroDiario[Fecha],"&gt;="&amp;Y$3,TblLibroDiario[Fecha],"&lt;="&amp;Y$4)</f>
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <f>SUMIFS(TblLibroDiario[Haber],TblLibroDiario[Cuenta],"="&amp;$P36,TblLibroDiario[Fecha],"&gt;="&amp;Y$3,TblLibroDiario[Fecha],"&lt;="&amp;Y$4)</f>
+        <v>0</v>
+      </c>
+      <c r="V36" t="s">
+        <v>82</v>
+      </c>
+      <c r="X36" s="16"/>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>121002</v>
+      </c>
+      <c r="B37">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A37,TblCatalogoCuentas[Código],0), 3)</f>
+        <v>6</v>
+      </c>
+      <c r="C37" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A37,TblCatalogoCuentas[Código],0), 5)</f>
+        <v xml:space="preserve">121002 - BIENES MUEBLES </v>
+      </c>
+      <c r="D37" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A37,TblCatalogoCuentas[Código],0), 6)</f>
+        <v>Deudora</v>
+      </c>
+      <c r="E37">
+        <f>SUMIFS(TblLibroDiario[Debe],TblLibroDiario[Cuenta],"="&amp;$C37,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <f>SUMIFS(TblLibroDiario[Haber],TblLibroDiario[Cuenta],"="&amp;$C37,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="J37" t="s">
+        <v>36</v>
+      </c>
+      <c r="N37">
+        <v>219001</v>
+      </c>
+      <c r="O37">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N37,TblCatalogoCuentas[Código],0), 3)</f>
+        <v>6</v>
+      </c>
+      <c r="P37" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N37,TblCatalogoCuentas[Código],0), 5)</f>
+        <v xml:space="preserve">219001 - REBAJAS Y DEVOLUCIONES PENDIENTES DE APLICAR </v>
+      </c>
+      <c r="Q37" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N37,TblCatalogoCuentas[Código],0), 6)</f>
+        <v>Acreedora</v>
+      </c>
+      <c r="R37">
+        <f>SUMIFS(TblLibroDiario[Debe],TblLibroDiario[Cuenta],"="&amp;$P37,TblLibroDiario[Fecha],"&gt;="&amp;Y$3,TblLibroDiario[Fecha],"&lt;="&amp;Y$4)</f>
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <f>SUMIFS(TblLibroDiario[Haber],TblLibroDiario[Cuenta],"="&amp;$P37,TblLibroDiario[Fecha],"&gt;="&amp;Y$3,TblLibroDiario[Fecha],"&lt;="&amp;Y$4)</f>
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>83</v>
+      </c>
+      <c r="X37" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>121002001</v>
+      </c>
+      <c r="B38">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A38,TblCatalogoCuentas[Código],0), 3)</f>
+        <v>9</v>
+      </c>
+      <c r="C38" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A38,TblCatalogoCuentas[Código],0), 5)</f>
+        <v>121002001 - MOBILIARIO Y EQUIPO DE OFICINA</v>
+      </c>
+      <c r="D38" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A38,TblCatalogoCuentas[Código],0), 6)</f>
+        <v>Deudora</v>
+      </c>
+      <c r="E38">
+        <f>SUMIFS(TblLibroDiario[Debe],TblLibroDiario[Cuenta],"="&amp;$C38,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <f>SUMIFS(TblLibroDiario[Haber],TblLibroDiario[Cuenta],"="&amp;$C38,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="K38" t="s">
+        <v>10</v>
+      </c>
+      <c r="L38" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U38" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="X38" s="23">
+        <f>SUM(X8:X37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>121002002</v>
+      </c>
+      <c r="B39">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A39,TblCatalogoCuentas[Código],0), 3)</f>
+        <v>9</v>
+      </c>
+      <c r="C39" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A39,TblCatalogoCuentas[Código],0), 5)</f>
+        <v>121002002 - MOBILIARIO Y EQUIPO DE VENTA</v>
+      </c>
+      <c r="D39" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A39,TblCatalogoCuentas[Código],0), 6)</f>
+        <v>Deudora</v>
+      </c>
+      <c r="E39">
+        <f>SUMIFS(TblLibroDiario[Debe],TblLibroDiario[Cuenta],"="&amp;$C39,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <f>SUMIFS(TblLibroDiario[Haber],TblLibroDiario[Cuenta],"="&amp;$C39,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="K39" t="s">
+        <v>37</v>
+      </c>
+      <c r="L39" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>121002003</v>
+      </c>
+      <c r="B40">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A40,TblCatalogoCuentas[Código],0), 3)</f>
+        <v>9</v>
+      </c>
+      <c r="C40" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A40,TblCatalogoCuentas[Código],0), 5)</f>
+        <v xml:space="preserve">121002003 - EQUIPO DE TRANSPORTE </v>
+      </c>
+      <c r="D40" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A40,TblCatalogoCuentas[Código],0), 6)</f>
+        <v>Deudora</v>
+      </c>
+      <c r="E40">
+        <f>SUMIFS(TblLibroDiario[Debe],TblLibroDiario[Cuenta],"="&amp;$C40,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <f>SUMIFS(TblLibroDiario[Haber],TblLibroDiario[Cuenta],"="&amp;$C40,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="K40" t="s">
+        <v>38</v>
+      </c>
+      <c r="L40" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>22</v>
+      </c>
+      <c r="O40">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N40,TblCatalogoCuentas[Código],0), 3)</f>
+        <v>2</v>
+      </c>
+      <c r="P40" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N40,TblCatalogoCuentas[Código],0), 5)</f>
+        <v xml:space="preserve">22 - PASIVO NO CORRIENTE </v>
+      </c>
+      <c r="Q40" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N40,TblCatalogoCuentas[Código],0), 6)</f>
+        <v>Acreedora</v>
+      </c>
+      <c r="R40">
+        <f>SUMIFS(TblLibroDiario[Debe],TblLibroDiario[Cuenta],"="&amp;$P40,TblLibroDiario[Fecha],"&gt;="&amp;Y$3,TblLibroDiario[Fecha],"&lt;="&amp;Y$4)</f>
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <f>SUMIFS(TblLibroDiario[Haber],TblLibroDiario[Cuenta],"="&amp;$P40,TblLibroDiario[Fecha],"&gt;="&amp;Y$3,TblLibroDiario[Fecha],"&lt;="&amp;Y$4)</f>
+        <v>0</v>
+      </c>
+      <c r="U40" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="X40" s="16"/>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>121002004</v>
+      </c>
+      <c r="B41">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A41,TblCatalogoCuentas[Código],0), 3)</f>
+        <v>9</v>
+      </c>
+      <c r="C41" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A41,TblCatalogoCuentas[Código],0), 5)</f>
+        <v>121002004 - EQUIPO DE SEGURIDAD</v>
+      </c>
+      <c r="D41" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A41,TblCatalogoCuentas[Código],0), 6)</f>
+        <v>Deudora</v>
+      </c>
+      <c r="E41">
+        <f>SUMIFS(TblLibroDiario[Debe],TblLibroDiario[Cuenta],"="&amp;$C41,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <f>SUMIFS(TblLibroDiario[Haber],TblLibroDiario[Cuenta],"="&amp;$C41,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="K41" t="s">
+        <v>39</v>
+      </c>
+      <c r="L41" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>221</v>
+      </c>
+      <c r="O41">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N41,TblCatalogoCuentas[Código],0), 3)</f>
+        <v>3</v>
+      </c>
+      <c r="P41" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N41,TblCatalogoCuentas[Código],0), 5)</f>
+        <v xml:space="preserve">221 - PASIVO POR IMPUESTOS DIFERIDOS </v>
+      </c>
+      <c r="Q41" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N41,TblCatalogoCuentas[Código],0), 6)</f>
+        <v>Acreedora</v>
+      </c>
+      <c r="R41">
+        <f>SUMIFS(TblLibroDiario[Debe],TblLibroDiario[Cuenta],"="&amp;$P41,TblLibroDiario[Fecha],"&gt;="&amp;Y$3,TblLibroDiario[Fecha],"&lt;="&amp;Y$4)</f>
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <f>SUMIFS(TblLibroDiario[Haber],TblLibroDiario[Cuenta],"="&amp;$P41,TblLibroDiario[Fecha],"&gt;="&amp;Y$3,TblLibroDiario[Fecha],"&lt;="&amp;Y$4)</f>
+        <v>0</v>
+      </c>
+      <c r="V41" t="s">
+        <v>85</v>
+      </c>
+      <c r="X41" s="16">
+        <f>IF(Q41="Deudora",R41-S41,S41-R41)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>121003</v>
+      </c>
+      <c r="B42">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A42,TblCatalogoCuentas[Código],0), 3)</f>
+        <v>6</v>
+      </c>
+      <c r="C42" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A42,TblCatalogoCuentas[Código],0), 5)</f>
+        <v xml:space="preserve">121003 - DEPRECIACIÓN ACUMULADA </v>
+      </c>
+      <c r="D42" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A42,TblCatalogoCuentas[Código],0), 6)</f>
+        <v>Acreedora</v>
+      </c>
+      <c r="E42">
+        <f>SUMIFS(TblLibroDiario[Debe],TblLibroDiario[Cuenta],"="&amp;$C42,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <f>SUMIFS(TblLibroDiario[Haber],TblLibroDiario[Cuenta],"="&amp;$C42,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="J42" t="s">
+        <v>40</v>
+      </c>
+      <c r="N42">
+        <v>222</v>
+      </c>
+      <c r="O42">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N42,TblCatalogoCuentas[Código],0), 3)</f>
+        <v>3</v>
+      </c>
+      <c r="P42" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N42,TblCatalogoCuentas[Código],0), 5)</f>
+        <v xml:space="preserve">222 - PRÉSTAMOS BANCARIOS A LARGO PLAZO </v>
+      </c>
+      <c r="Q42" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N42,TblCatalogoCuentas[Código],0), 6)</f>
+        <v>Acreedora</v>
+      </c>
+      <c r="R42">
+        <f>SUMIFS(TblLibroDiario[Debe],TblLibroDiario[Cuenta],"="&amp;$P42,TblLibroDiario[Fecha],"&gt;="&amp;Y$3,TblLibroDiario[Fecha],"&lt;="&amp;Y$4)</f>
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <f>SUMIFS(TblLibroDiario[Haber],TblLibroDiario[Cuenta],"="&amp;$P42,TblLibroDiario[Fecha],"&gt;="&amp;Y$3,TblLibroDiario[Fecha],"&lt;="&amp;Y$4)</f>
+        <v>0</v>
+      </c>
+      <c r="V42" t="s">
+        <v>86</v>
+      </c>
+      <c r="X42" s="16"/>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>121003001</v>
+      </c>
+      <c r="B43">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A43,TblCatalogoCuentas[Código],0), 3)</f>
+        <v>9</v>
+      </c>
+      <c r="C43" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A43,TblCatalogoCuentas[Código],0), 5)</f>
+        <v xml:space="preserve">121003001 - DEPRECIACIÓN ACUMULADA DE INSTALACIONES </v>
+      </c>
+      <c r="D43" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A43,TblCatalogoCuentas[Código],0), 6)</f>
+        <v>Acreedora</v>
+      </c>
+      <c r="E43">
+        <f>SUMIFS(TblLibroDiario[Debe],TblLibroDiario[Cuenta],"="&amp;$C43,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <f>SUMIFS(TblLibroDiario[Haber],TblLibroDiario[Cuenta],"="&amp;$C43,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="K43" t="s">
+        <v>41</v>
+      </c>
+      <c r="L43" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>222001</v>
+      </c>
+      <c r="O43">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N43,TblCatalogoCuentas[Código],0), 3)</f>
+        <v>6</v>
+      </c>
+      <c r="P43" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N43,TblCatalogoCuentas[Código],0), 5)</f>
+        <v xml:space="preserve">222001 - GARANTÍA HIPOTECARIA  </v>
+      </c>
+      <c r="Q43" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N43,TblCatalogoCuentas[Código],0), 6)</f>
+        <v>Acreedora</v>
+      </c>
+      <c r="R43">
+        <f>SUMIFS(TblLibroDiario[Debe],TblLibroDiario[Cuenta],"="&amp;$P43,TblLibroDiario[Fecha],"&gt;="&amp;Y$3,TblLibroDiario[Fecha],"&lt;="&amp;Y$4)</f>
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <f>SUMIFS(TblLibroDiario[Haber],TblLibroDiario[Cuenta],"="&amp;$P43,TblLibroDiario[Fecha],"&gt;="&amp;Y$3,TblLibroDiario[Fecha],"&lt;="&amp;Y$4)</f>
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>87</v>
+      </c>
+      <c r="X43" s="21">
+        <f>IF(Q43="Deudora",R43-S43,S43-R43)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>121003002</v>
+      </c>
+      <c r="B44">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A44,TblCatalogoCuentas[Código],0), 3)</f>
+        <v>9</v>
+      </c>
+      <c r="C44" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A44,TblCatalogoCuentas[Código],0), 5)</f>
+        <v xml:space="preserve">121003002 - DEPRECIACIÓN ACUMULADA MOBILIARIO Y EQUIPO DE OFICINA </v>
+      </c>
+      <c r="D44" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A44,TblCatalogoCuentas[Código],0), 6)</f>
+        <v>Acreedora</v>
+      </c>
+      <c r="E44">
+        <f>SUMIFS(TblLibroDiario[Debe],TblLibroDiario[Cuenta],"="&amp;$C44,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <f>SUMIFS(TblLibroDiario[Haber],TblLibroDiario[Cuenta],"="&amp;$C44,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="K44" t="s">
+        <v>42</v>
+      </c>
+      <c r="L44" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U44" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="X44" s="16">
+        <f>SUM(X40:X43)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>121003003</v>
+      </c>
+      <c r="B45">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A45,TblCatalogoCuentas[Código],0), 3)</f>
+        <v>9</v>
+      </c>
+      <c r="C45" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A45,TblCatalogoCuentas[Código],0), 5)</f>
+        <v>121003003 - DEPRECIACIÓN ACUMULADA MOBILIARIO Y EQUIPO DE VENTA</v>
+      </c>
+      <c r="D45" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A45,TblCatalogoCuentas[Código],0), 6)</f>
+        <v>Acreedora</v>
+      </c>
+      <c r="E45">
+        <f>SUMIFS(TblLibroDiario[Debe],TblLibroDiario[Cuenta],"="&amp;$C45,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <f>SUMIFS(TblLibroDiario[Haber],TblLibroDiario[Cuenta],"="&amp;$C45,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="K45" t="s">
+        <v>43</v>
+      </c>
+      <c r="L45" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X45" s="16"/>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>121003004</v>
+      </c>
+      <c r="B46">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A46,TblCatalogoCuentas[Código],0), 3)</f>
+        <v>9</v>
+      </c>
+      <c r="C46" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A46,TblCatalogoCuentas[Código],0), 5)</f>
+        <v xml:space="preserve">121003004 - DEPRECIACIÓN ACUMULADA EQUIPO DE TRANSPORTE </v>
+      </c>
+      <c r="D46" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A46,TblCatalogoCuentas[Código],0), 6)</f>
+        <v>Acreedora</v>
+      </c>
+      <c r="E46">
+        <f>SUMIFS(TblLibroDiario[Debe],TblLibroDiario[Cuenta],"="&amp;$C46,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <f>SUMIFS(TblLibroDiario[Haber],TblLibroDiario[Cuenta],"="&amp;$C46,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="K46" t="s">
+        <v>44</v>
+      </c>
+      <c r="L46" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T46" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="X46" s="23">
+        <f>X38+X44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>121003005</v>
+      </c>
+      <c r="B47">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A47,TblCatalogoCuentas[Código],0), 3)</f>
+        <v>9</v>
+      </c>
+      <c r="C47" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A47,TblCatalogoCuentas[Código],0), 5)</f>
+        <v xml:space="preserve">121003005 - DEPRECIACIÓN ACUMULADA EQUIPO DE SEGURIDAD </v>
+      </c>
+      <c r="D47" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A47,TblCatalogoCuentas[Código],0), 6)</f>
+        <v>Acreedora</v>
+      </c>
+      <c r="E47">
+        <f>SUMIFS(TblLibroDiario[Debe],TblLibroDiario[Cuenta],"="&amp;$C47,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <f>SUMIFS(TblLibroDiario[Haber],TblLibroDiario[Cuenta],"="&amp;$C47,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="K47" t="s">
+        <v>45</v>
+      </c>
+      <c r="L47" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>122</v>
+      </c>
+      <c r="B48">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A48,TblCatalogoCuentas[Código],0), 3)</f>
+        <v>3</v>
+      </c>
+      <c r="C48" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A48,TblCatalogoCuentas[Código],0), 5)</f>
+        <v xml:space="preserve">122 - INTANGIBLES </v>
+      </c>
+      <c r="D48" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A48,TblCatalogoCuentas[Código],0), 6)</f>
+        <v>Deudora</v>
+      </c>
+      <c r="E48">
+        <f>SUMIFS(TblLibroDiario[Debe],TblLibroDiario[Cuenta],"="&amp;$C48,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <f>SUMIFS(TblLibroDiario[Haber],TblLibroDiario[Cuenta],"="&amp;$C48,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="I48" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="N48">
+        <v>3</v>
+      </c>
+      <c r="O48">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N48,TblCatalogoCuentas[Código],0), 3)</f>
+        <v>1</v>
+      </c>
+      <c r="P48" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N48,TblCatalogoCuentas[Código],0), 5)</f>
+        <v xml:space="preserve">3 - PATRIMONIO </v>
+      </c>
+      <c r="Q48" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N48,TblCatalogoCuentas[Código],0), 6)</f>
+        <v>Acreedora</v>
+      </c>
+      <c r="R48">
+        <f>SUMIFS(TblLibroDiario[Debe],TblLibroDiario[Cuenta],"="&amp;$P48,TblLibroDiario[Fecha],"&gt;="&amp;Y$3,TblLibroDiario[Fecha],"&lt;="&amp;Y$4)</f>
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <f>SUMIFS(TblLibroDiario[Haber],TblLibroDiario[Cuenta],"="&amp;$P48,TblLibroDiario[Fecha],"&gt;="&amp;Y$3,TblLibroDiario[Fecha],"&lt;="&amp;Y$4)</f>
+        <v>0</v>
+      </c>
+      <c r="T48" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="X48" s="16"/>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>122001</v>
+      </c>
+      <c r="B49">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A49,TblCatalogoCuentas[Código],0), 3)</f>
+        <v>6</v>
+      </c>
+      <c r="C49" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A49,TblCatalogoCuentas[Código],0), 5)</f>
+        <v>122001 - PATENTES Y MARCA</v>
+      </c>
+      <c r="D49" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A49,TblCatalogoCuentas[Código],0), 6)</f>
+        <v>Deudora</v>
+      </c>
+      <c r="E49">
+        <f>SUMIFS(TblLibroDiario[Debe],TblLibroDiario[Cuenta],"="&amp;$C49,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <f>SUMIFS(TblLibroDiario[Haber],TblLibroDiario[Cuenta],"="&amp;$C49,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="J49" t="s">
+        <v>47</v>
+      </c>
+      <c r="L49" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>31</v>
+      </c>
+      <c r="O49">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N49,TblCatalogoCuentas[Código],0), 3)</f>
+        <v>2</v>
+      </c>
+      <c r="P49" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N49,TblCatalogoCuentas[Código],0), 5)</f>
+        <v xml:space="preserve">31 - CAPITAL CONTABLE </v>
+      </c>
+      <c r="Q49" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N49,TblCatalogoCuentas[Código],0), 6)</f>
+        <v>Acreedora</v>
+      </c>
+      <c r="R49">
+        <f>SUMIFS(TblLibroDiario[Debe],TblLibroDiario[Cuenta],"="&amp;$P49,TblLibroDiario[Fecha],"&gt;="&amp;Y$3,TblLibroDiario[Fecha],"&lt;="&amp;Y$4)</f>
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <f>SUMIFS(TblLibroDiario[Haber],TblLibroDiario[Cuenta],"="&amp;$P49,TblLibroDiario[Fecha],"&gt;="&amp;Y$3,TblLibroDiario[Fecha],"&lt;="&amp;Y$4)</f>
+        <v>0</v>
+      </c>
+      <c r="U49" t="s">
+        <v>89</v>
+      </c>
+      <c r="X49" s="16"/>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>122002</v>
+      </c>
+      <c r="B50">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A50,TblCatalogoCuentas[Código],0), 3)</f>
+        <v>6</v>
+      </c>
+      <c r="C50" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A50,TblCatalogoCuentas[Código],0), 5)</f>
+        <v>122002 - SOFTWARE</v>
+      </c>
+      <c r="D50" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A50,TblCatalogoCuentas[Código],0), 6)</f>
+        <v>Deudora</v>
+      </c>
+      <c r="E50">
+        <f>SUMIFS(TblLibroDiario[Debe],TblLibroDiario[Cuenta],"="&amp;$C50,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <f>SUMIFS(TblLibroDiario[Haber],TblLibroDiario[Cuenta],"="&amp;$C50,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="J50" t="s">
+        <v>48</v>
+      </c>
+      <c r="L50" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>311</v>
+      </c>
+      <c r="O50">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N50,TblCatalogoCuentas[Código],0), 3)</f>
+        <v>3</v>
+      </c>
+      <c r="P50" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N50,TblCatalogoCuentas[Código],0), 5)</f>
+        <v xml:space="preserve">311 - CAPITAL </v>
+      </c>
+      <c r="Q50" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N50,TblCatalogoCuentas[Código],0), 6)</f>
+        <v>Acreedora</v>
+      </c>
+      <c r="R50">
+        <f>SUMIFS(TblLibroDiario[Debe],TblLibroDiario[Cuenta],"="&amp;$P50,TblLibroDiario[Fecha],"&gt;="&amp;Y$3,TblLibroDiario[Fecha],"&lt;="&amp;Y$4)</f>
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <f>SUMIFS(TblLibroDiario[Haber],TblLibroDiario[Cuenta],"="&amp;$P50,TblLibroDiario[Fecha],"&gt;="&amp;Y$3,TblLibroDiario[Fecha],"&lt;="&amp;Y$4)</f>
+        <v>0</v>
+      </c>
+      <c r="V50" t="s">
+        <v>90</v>
+      </c>
+      <c r="X50" s="16">
+        <f>IF(Q50="Deudora",R50-S50,S50-R50)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>122003</v>
+      </c>
+      <c r="B51">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A51,TblCatalogoCuentas[Código],0), 3)</f>
+        <v>6</v>
+      </c>
+      <c r="C51" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A51,TblCatalogoCuentas[Código],0), 5)</f>
+        <v xml:space="preserve">122003 - AMORTIZACIÓN ACUMULADA DE INTANGIBLES </v>
+      </c>
+      <c r="D51" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A51,TblCatalogoCuentas[Código],0), 6)</f>
+        <v>Acreedora</v>
+      </c>
+      <c r="E51">
+        <f>SUMIFS(TblLibroDiario[Debe],TblLibroDiario[Cuenta],"="&amp;$C51,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <f>SUMIFS(TblLibroDiario[Haber],TblLibroDiario[Cuenta],"="&amp;$C51,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="J51" t="s">
+        <v>49</v>
+      </c>
+      <c r="N51">
+        <v>312</v>
+      </c>
+      <c r="O51">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N51,TblCatalogoCuentas[Código],0), 3)</f>
+        <v>3</v>
+      </c>
+      <c r="P51" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N51,TblCatalogoCuentas[Código],0), 5)</f>
+        <v xml:space="preserve">312 - RESULTADO DEL EJERCICIO </v>
+      </c>
+      <c r="Q51" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N51,TblCatalogoCuentas[Código],0), 6)</f>
+        <v>Deudora</v>
+      </c>
+      <c r="R51">
+        <f>SUMIFS(TblLibroDiario[Debe],TblLibroDiario[Cuenta],"="&amp;$P51,TblLibroDiario[Fecha],"&gt;="&amp;Y$3,TblLibroDiario[Fecha],"&lt;="&amp;Y$4)</f>
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <f>SUMIFS(TblLibroDiario[Haber],TblLibroDiario[Cuenta],"="&amp;$P51,TblLibroDiario[Fecha],"&gt;="&amp;Y$3,TblLibroDiario[Fecha],"&lt;="&amp;Y$4)</f>
+        <v>0</v>
+      </c>
+      <c r="V51" t="s">
+        <v>91</v>
+      </c>
+      <c r="X51" s="16"/>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>122003001</v>
+      </c>
+      <c r="B52">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A52,TblCatalogoCuentas[Código],0), 3)</f>
+        <v>9</v>
+      </c>
+      <c r="C52" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A52,TblCatalogoCuentas[Código],0), 5)</f>
+        <v xml:space="preserve">122003001 - AMORTIZACIÓN ACUMULADA PATENTES Y MARCA </v>
+      </c>
+      <c r="D52" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A52,TblCatalogoCuentas[Código],0), 6)</f>
+        <v>Acreedora</v>
+      </c>
+      <c r="E52">
+        <f>SUMIFS(TblLibroDiario[Debe],TblLibroDiario[Cuenta],"="&amp;$C52,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <f>SUMIFS(TblLibroDiario[Haber],TblLibroDiario[Cuenta],"="&amp;$C52,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="K52" t="s">
+        <v>50</v>
+      </c>
+      <c r="L52" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>312001</v>
+      </c>
+      <c r="O52">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N52,TblCatalogoCuentas[Código],0), 3)</f>
+        <v>6</v>
+      </c>
+      <c r="P52" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N52,TblCatalogoCuentas[Código],0), 5)</f>
+        <v xml:space="preserve">312001 - UTILIDAD DEL PRESENTE EJERCICIO </v>
+      </c>
+      <c r="Q52" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N52,TblCatalogoCuentas[Código],0), 6)</f>
+        <v>Acreedora</v>
+      </c>
+      <c r="R52">
+        <f>SUMIFS(TblLibroDiario[Debe],TblLibroDiario[Cuenta],"="&amp;$P52,TblLibroDiario[Fecha],"&gt;="&amp;Y$3,TblLibroDiario[Fecha],"&lt;="&amp;Y$4)</f>
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <f>SUMIFS(TblLibroDiario[Haber],TblLibroDiario[Cuenta],"="&amp;$P52,TblLibroDiario[Fecha],"&gt;="&amp;Y$3,TblLibroDiario[Fecha],"&lt;="&amp;Y$4)</f>
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>92</v>
+      </c>
+      <c r="X52" s="16">
+        <f>IF(Q52="Deudora",R52-S52,S52-R52)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>122003002</v>
+      </c>
+      <c r="B53">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A53,TblCatalogoCuentas[Código],0), 3)</f>
+        <v>9</v>
+      </c>
+      <c r="C53" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A53,TblCatalogoCuentas[Código],0), 5)</f>
+        <v xml:space="preserve">122003002 - AMORTIZACIÓN ACUMULADA SOFTWARE </v>
+      </c>
+      <c r="D53" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A53,TblCatalogoCuentas[Código],0), 6)</f>
+        <v>Acreedora</v>
+      </c>
+      <c r="E53">
+        <f>SUMIFS(TblLibroDiario[Debe],TblLibroDiario[Cuenta],"="&amp;$C53,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <f>SUMIFS(TblLibroDiario[Haber],TblLibroDiario[Cuenta],"="&amp;$C53,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="K53" t="s">
+        <v>51</v>
+      </c>
+      <c r="L53" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>312002</v>
+      </c>
+      <c r="O53">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N53,TblCatalogoCuentas[Código],0), 3)</f>
+        <v>6</v>
+      </c>
+      <c r="P53" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N53,TblCatalogoCuentas[Código],0), 5)</f>
+        <v xml:space="preserve">312002 - PÉRDIDA DEL PRESENTE EJERCICIO </v>
+      </c>
+      <c r="Q53" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($N53,TblCatalogoCuentas[Código],0), 6)</f>
+        <v>Deudora</v>
+      </c>
+      <c r="R53">
+        <f>SUMIFS(TblLibroDiario[Debe],TblLibroDiario[Cuenta],"="&amp;$P53,TblLibroDiario[Fecha],"&gt;="&amp;Y$3,TblLibroDiario[Fecha],"&lt;="&amp;Y$4)</f>
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <f>SUMIFS(TblLibroDiario[Haber],TblLibroDiario[Cuenta],"="&amp;$P53,TblLibroDiario[Fecha],"&gt;="&amp;Y$3,TblLibroDiario[Fecha],"&lt;="&amp;Y$4)</f>
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>93</v>
+      </c>
+      <c r="X53" s="21">
+        <f>IF(Q53="Deudora",R53-S53,S53-R53)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>123</v>
+      </c>
+      <c r="B54">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A54,TblCatalogoCuentas[Código],0), 3)</f>
+        <v>3</v>
+      </c>
+      <c r="C54" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A54,TblCatalogoCuentas[Código],0), 5)</f>
+        <v xml:space="preserve">123 - DEUDORES COMERCIALES Y OTRAS CUENTAS POR COBRAR A LARGO PLAZO </v>
+      </c>
+      <c r="D54" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A54,TblCatalogoCuentas[Código],0), 6)</f>
+        <v>Deudora</v>
+      </c>
+      <c r="E54">
+        <f>SUMIFS(TblLibroDiario[Debe],TblLibroDiario[Cuenta],"="&amp;$C54,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <f>SUMIFS(TblLibroDiario[Haber],TblLibroDiario[Cuenta],"="&amp;$C54,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="I54" t="s">
+        <v>52</v>
+      </c>
+      <c r="L54" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T54" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="X54" s="23">
+        <f>SUM(X48:X53)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>124</v>
+      </c>
+      <c r="B55">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A55,TblCatalogoCuentas[Código],0), 3)</f>
+        <v>3</v>
+      </c>
+      <c r="C55" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A55,TblCatalogoCuentas[Código],0), 5)</f>
+        <v>124 - INVERSIONES FINANCIERAS A LARGO PLAZO</v>
+      </c>
+      <c r="D55" t="str">
+        <f>INDEX(TblCatalogoCuentas[], MATCH($A55,TblCatalogoCuentas[Código],0), 6)</f>
+        <v>Deudora</v>
+      </c>
+      <c r="E55">
+        <f>SUMIFS(TblLibroDiario[Debe],TblLibroDiario[Cuenta],"="&amp;$C55,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <f>SUMIFS(TblLibroDiario[Haber],TblLibroDiario[Cuenta],"="&amp;$C55,TblLibroDiario[Fecha],"&gt;="&amp;L$3,TblLibroDiario[Fecha],"&lt;="&amp;L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="I55" t="s">
+        <v>53</v>
+      </c>
+      <c r="L55" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="H56" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="L56" s="16">
+        <f>SUM(L32:L55)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G58" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="L58" s="25">
+        <f>L30+L56</f>
+        <v>5</v>
+      </c>
+      <c r="T58" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="X58" s="24">
+        <f>X46+X54</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4789,7 +7768,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>166</v>
       </c>
